--- a/置潤曆.xlsx
+++ b/置潤曆.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\GoogleDriveHoy\qimen-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48572813-868E-4E05-8D6C-B31251571578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5316660B-396C-46BB-806D-8537FD020246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="330" windowWidth="25440" windowHeight="15540" activeTab="2" xr2:uid="{902489F8-786F-4753-A778-68C63BFDF0EE}"/>
+    <workbookView xWindow="28680" yWindow="330" windowWidth="25440" windowHeight="15540" xr2:uid="{902489F8-786F-4753-A778-68C63BFDF0EE}"/>
   </bookViews>
   <sheets>
     <sheet name="不置閏" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
   <definedNames>
     <definedName name="branch">def!$B$1:$B$12</definedName>
     <definedName name="DirectionalStars">def!$C$1:$C$8</definedName>
+    <definedName name="header">不置閏!$A$1:$J$1</definedName>
     <definedName name="stem">def!$A$1:$A$10</definedName>
     <definedName name="yang_structure" localSheetId="1">冬置閏!$I$5:$I$43</definedName>
     <definedName name="yang_structure" localSheetId="2">夏置閏!$I$2:$I$43</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="92">
   <si>
     <t>十一月</t>
   </si>
@@ -316,6 +317,9 @@
   <si>
     <t>小滿</t>
   </si>
+  <si>
+    <t>lunar month index</t>
+  </si>
 </sst>
 </file>
 
@@ -356,7 +360,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -403,6 +407,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -420,12 +435,44 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="19">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF002060"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="dotted">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF00B0F0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF002060"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <left style="hair">
@@ -458,17 +505,11 @@
     </dxf>
     <dxf>
       <border>
-        <left style="hair">
+        <top style="dotted">
           <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color theme="5"/>
         </top>
-        <bottom style="hair">
-          <color auto="1"/>
+        <bottom style="thin">
+          <color rgb="FF00B0F0"/>
         </bottom>
         <vertical/>
         <horizontal/>
@@ -476,11 +517,8 @@
     </dxf>
     <dxf>
       <border>
-        <top style="thin">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="hair">
-          <color auto="1"/>
+        <bottom style="thin">
+          <color rgb="FF002060"/>
         </bottom>
         <vertical/>
         <horizontal/>
@@ -599,36 +637,6 @@
     </dxf>
     <dxf>
       <border>
-        <top style="dotted">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B0F0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF002060"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF002060"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
         <left style="hair">
           <color auto="1"/>
         </left>
@@ -673,57 +681,6 @@
       <border>
         <bottom style="thin">
           <color rgb="FF002060"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="dotted">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B0F0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF002060"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom style="hair">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="hair">
-          <color auto="1"/>
         </bottom>
         <vertical/>
         <horizontal/>
@@ -1041,9 +998,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55B991D3-8E91-450A-976D-3CEEE520ADD5}">
   <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D32" sqref="D32:D34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1086,6 +1043,9 @@
       <c r="I1" s="3" t="s">
         <v>76</v>
       </c>
+      <c r="J1" s="6" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -1119,7 +1079,10 @@
         <f>IF(H2=0, IF(G2 = 0, INDEX(DirectionalStars, F2), MOD(9+#REF!, 9)+1), MOD(9+I1-4, 9)+1)</f>
         <v>1</v>
       </c>
-      <c r="J2" s="4"/>
+      <c r="J2" s="4">
+        <f>MATCH(C2, branch,0 )</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -1153,6 +1116,10 @@
         <f>IF(H3=0, IF(G3 = 0, INDEX(DirectionalStars, F3), MOD(9+#REF!, 9)+1), MOD(9+I2-4, 9)+1)</f>
         <v>7</v>
       </c>
+      <c r="J3" s="4">
+        <f>MATCH(C3, branch,0 )</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -1183,8 +1150,12 @@
         <v>2</v>
       </c>
       <c r="I4">
-        <f>IF(H4=0, IF(G4 = 0, INDEX(DirectionalStars, F4), MOD(9+I1, 9)+1), MOD(9+I3-4, 9)+1)</f>
-        <v>4</v>
+        <f t="shared" ref="I4:I14" si="3">IF(H4=0, IF(G4 = 0, INDEX(DirectionalStars, F4), MOD(9+I1, 9)+1), MOD(9+I3-4, 9)+1)</f>
+        <v>4</v>
+      </c>
+      <c r="J4" s="4">
+        <f>MATCH(C4, branch,0 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1216,7 +1187,11 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <f>IF(H5=0, IF(G5 = 0, INDEX(DirectionalStars, F5), MOD(9+I2, 9)+1), MOD(9+I4-4, 9)+1)</f>
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="J5" s="4">
+        <f>MATCH(C5, branch,0 )</f>
         <v>2</v>
       </c>
     </row>
@@ -1249,8 +1224,12 @@
         <v>1</v>
       </c>
       <c r="I6">
-        <f>IF(H6=0, IF(G6 = 0, INDEX(DirectionalStars, F6), MOD(9+I3, 9)+1), MOD(9+I5-4, 9)+1)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
+      </c>
+      <c r="J6" s="4">
+        <f>MATCH(C6, branch,0 )</f>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1282,8 +1261,12 @@
         <v>2</v>
       </c>
       <c r="I7">
-        <f>IF(H7=0, IF(G7 = 0, INDEX(DirectionalStars, F7), MOD(9+I4, 9)+1), MOD(9+I6-4, 9)+1)</f>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="J7" s="4">
+        <f>MATCH(C7, branch,0 )</f>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1315,8 +1298,12 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <f>IF(H8=0, IF(G8 = 0, INDEX(DirectionalStars, F8), MOD(9+I5, 9)+1), MOD(9+I7-4, 9)+1)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
+      </c>
+      <c r="J8" s="4">
+        <f>MATCH(C8, branch,0 )</f>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1348,8 +1335,12 @@
         <v>1</v>
       </c>
       <c r="I9">
-        <f>IF(H9=0, IF(G9 = 0, INDEX(DirectionalStars, F9), MOD(9+I6, 9)+1), MOD(9+I8-4, 9)+1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
+      </c>
+      <c r="J9" s="4">
+        <f>MATCH(C9, branch,0 )</f>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1381,8 +1372,12 @@
         <v>2</v>
       </c>
       <c r="I10">
-        <f>IF(H10=0, IF(G10 = 0, INDEX(DirectionalStars, F10), MOD(9+I7, 9)+1), MOD(9+I9-4, 9)+1)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
+      </c>
+      <c r="J10" s="4">
+        <f>MATCH(C10, branch,0 )</f>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1414,8 +1409,12 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <f>IF(H11=0, IF(G11 = 0, INDEX(DirectionalStars, F11), MOD(9+I8, 9)+1), MOD(9+I10-4, 9)+1)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
+      </c>
+      <c r="J11" s="4">
+        <f>MATCH(C11, branch,0 )</f>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1447,8 +1446,12 @@
         <v>1</v>
       </c>
       <c r="I12">
-        <f>IF(H12=0, IF(G12 = 0, INDEX(DirectionalStars, F12), MOD(9+I9, 9)+1), MOD(9+I11-4, 9)+1)</f>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="J12" s="4">
+        <f>MATCH(C12, branch,0 )</f>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1480,8 +1483,12 @@
         <v>2</v>
       </c>
       <c r="I13">
-        <f>IF(H13=0, IF(G13 = 0, INDEX(DirectionalStars, F13), MOD(9+I10, 9)+1), MOD(9+I12-4, 9)+1)</f>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="J13" s="4">
+        <f>MATCH(C13, branch,0 )</f>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1513,8 +1520,12 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <f>IF(H14=0, IF(G14 = 0, INDEX(DirectionalStars, F14), MOD(9+I11, 9)+1), MOD(9+I13-4, 9)+1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
+      </c>
+      <c r="J14" s="4">
+        <f>MATCH(C14, branch,0 )</f>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1549,6 +1560,10 @@
         <f>IF(H15=0, IF(G15 = 0, INDEX(DirectionalStars, F15), MOD(9+#REF!, 9)+1), MOD(9+I14-4, 9)+1)</f>
         <v>6</v>
       </c>
+      <c r="J15" s="4">
+        <f>MATCH(C15, branch,0 )</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -1582,8 +1597,12 @@
         <f>IF(H16=0, IF(G16 = 0, INDEX(DirectionalStars, F16), MOD(9+#REF!, 9)+1), MOD(9+I15-4, 9)+1)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="4">
+        <f>MATCH(C16, branch,0 )</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1612,11 +1631,15 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <f>IF(H17=0, IF(G17 = 0, INDEX(DirectionalStars, F17), MOD(9+I14, 9)+1), MOD(9+I16-4, 9)+1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I17:I27" si="4">IF(H17=0, IF(G17 = 0, INDEX(DirectionalStars, F17), MOD(9+I14, 9)+1), MOD(9+I16-4, 9)+1)</f>
+        <v>1</v>
+      </c>
+      <c r="J17" s="4">
+        <f>MATCH(C17, branch,0 )</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1645,11 +1668,15 @@
         <v>1</v>
       </c>
       <c r="I18">
-        <f>IF(H18=0, IF(G18 = 0, INDEX(DirectionalStars, F18), MOD(9+I15, 9)+1), MOD(9+I17-4, 9)+1)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="4">
+        <f>MATCH(C18, branch,0 )</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1678,11 +1705,15 @@
         <v>2</v>
       </c>
       <c r="I19">
-        <f>IF(H19=0, IF(G19 = 0, INDEX(DirectionalStars, F19), MOD(9+I16, 9)+1), MOD(9+I18-4, 9)+1)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="J19" s="4">
+        <f>MATCH(C19, branch,0 )</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1711,11 +1742,15 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <f>IF(H20=0, IF(G20 = 0, INDEX(DirectionalStars, F20), MOD(9+I17, 9)+1), MOD(9+I19-4, 9)+1)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" s="4">
+        <f>MATCH(C20, branch,0 )</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1744,11 +1779,15 @@
         <v>1</v>
       </c>
       <c r="I21">
-        <f>IF(H21=0, IF(G21 = 0, INDEX(DirectionalStars, F21), MOD(9+I18, 9)+1), MOD(9+I20-4, 9)+1)</f>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" s="4">
+        <f>MATCH(C21, branch,0 )</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1777,11 +1816,15 @@
         <v>2</v>
       </c>
       <c r="I22">
-        <f>IF(H22=0, IF(G22 = 0, INDEX(DirectionalStars, F22), MOD(9+I19, 9)+1), MOD(9+I21-4, 9)+1)</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" s="4">
+        <f>MATCH(C22, branch,0 )</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1810,11 +1853,15 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <f>IF(H23=0, IF(G23 = 0, INDEX(DirectionalStars, F23), MOD(9+I20, 9)+1), MOD(9+I22-4, 9)+1)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="J23" s="4">
+        <f>MATCH(C23, branch,0 )</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1843,11 +1890,15 @@
         <v>1</v>
       </c>
       <c r="I24">
-        <f>IF(H24=0, IF(G24 = 0, INDEX(DirectionalStars, F24), MOD(9+I21, 9)+1), MOD(9+I23-4, 9)+1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J24" s="4">
+        <f>MATCH(C24, branch,0 )</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1876,11 +1927,15 @@
         <v>2</v>
       </c>
       <c r="I25">
-        <f>IF(H25=0, IF(G25 = 0, INDEX(DirectionalStars, F25), MOD(9+I22, 9)+1), MOD(9+I24-4, 9)+1)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="4">
+        <f>MATCH(C25, branch,0 )</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1909,11 +1964,15 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <f>IF(H26=0, IF(G26 = 0, INDEX(DirectionalStars, F26), MOD(9+I23, 9)+1), MOD(9+I25-4, 9)+1)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="J26" s="4">
+        <f>MATCH(C26, branch,0 )</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1942,11 +2001,15 @@
         <v>1</v>
       </c>
       <c r="I27">
-        <f>IF(H27=0, IF(G27 = 0, INDEX(DirectionalStars, F27), MOD(9+I24, 9)+1), MOD(9+I26-4, 9)+1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="J27" s="4">
+        <f>MATCH(C27, branch,0 )</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1978,8 +2041,12 @@
         <f>IF(H28=0, IF(G28 = 0, INDEX(DirectionalStars, F28), MOD(9+#REF!, 9)+1), MOD(9+I27-4, 9)+1)</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28" s="4">
+        <f>MATCH(C28, branch,0 )</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2011,8 +2078,12 @@
         <f>IF(H29=0, IF(G29 = 0, INDEX(DirectionalStars, F29), MOD(9+#REF!, 9)+1), MOD(9+I28-4, 9)+1)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29" s="4">
+        <f>MATCH(C29, branch,0 )</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2041,11 +2112,15 @@
         <v>1</v>
       </c>
       <c r="I30">
-        <f>IF(H30=0, IF(G30 = 0, INDEX(DirectionalStars, F30), MOD(9+I27, 9)+1), MOD(9+I29-4, 9)+1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I30:I37" si="5">IF(H30=0, IF(G30 = 0, INDEX(DirectionalStars, F30), MOD(9+I27, 9)+1), MOD(9+I29-4, 9)+1)</f>
+        <v>1</v>
+      </c>
+      <c r="J30" s="4">
+        <f>MATCH(C30, branch,0 )</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2074,11 +2149,15 @@
         <v>2</v>
       </c>
       <c r="I31">
-        <f>IF(H31=0, IF(G31 = 0, INDEX(DirectionalStars, F31), MOD(9+I28, 9)+1), MOD(9+I30-4, 9)+1)</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31" s="4">
+        <f>MATCH(C31, branch,0 )</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2107,11 +2186,15 @@
         <v>0</v>
       </c>
       <c r="I32">
-        <f>IF(H32=0, IF(G32 = 0, INDEX(DirectionalStars, F32), MOD(9+I29, 9)+1), MOD(9+I31-4, 9)+1)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="J32" s="4">
+        <f>MATCH(C32, branch,0 )</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2140,11 +2223,15 @@
         <v>1</v>
       </c>
       <c r="I33">
-        <f>IF(H33=0, IF(G33 = 0, INDEX(DirectionalStars, F33), MOD(9+I30, 9)+1), MOD(9+I32-4, 9)+1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="J33" s="4">
+        <f>MATCH(C33, branch,0 )</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2173,11 +2260,15 @@
         <v>2</v>
       </c>
       <c r="I34">
-        <f>IF(H34=0, IF(G34 = 0, INDEX(DirectionalStars, F34), MOD(9+I31, 9)+1), MOD(9+I33-4, 9)+1)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34" s="4">
+        <f>MATCH(C34, branch,0 )</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2206,11 +2297,15 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <f>IF(H35=0, IF(G35 = 0, INDEX(DirectionalStars, F35), MOD(9+I32, 9)+1), MOD(9+I34-4, 9)+1)</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J35" s="4">
+        <f>MATCH(C35, branch,0 )</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2239,11 +2334,15 @@
         <v>1</v>
       </c>
       <c r="I36">
-        <f>IF(H36=0, IF(G36 = 0, INDEX(DirectionalStars, F36), MOD(9+I33, 9)+1), MOD(9+I35-4, 9)+1)</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J36" s="4">
+        <f>MATCH(C36, branch,0 )</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2272,11 +2371,15 @@
         <v>2</v>
       </c>
       <c r="I37">
-        <f>IF(H37=0, IF(G37 = 0, INDEX(DirectionalStars, F37), MOD(9+I34, 9)+1), MOD(9+I36-4, 9)+1)</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J37" s="4">
+        <f>MATCH(C37, branch,0 )</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -2305,11 +2408,15 @@
         <v>0</v>
       </c>
       <c r="I38">
-        <f>IF(H38=0, IF(G38 = 0, -INDEX(DirectionalStars, F38), MOD(I35+2, -9)-1), -MOD(-I37+2, 9)-1)</f>
+        <f t="shared" ref="I38:I73" si="6">IF(H38=0, IF(G38 = 0, -INDEX(DirectionalStars, F38), MOD(I35+2, -9)-1), -MOD(-I37+2, 9)-1)</f>
         <v>-9</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J38" s="4">
+        <f>MATCH(C38, branch,0 )</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2338,11 +2445,15 @@
         <v>1</v>
       </c>
       <c r="I39">
-        <f>IF(H39=0, IF(G39 = 0, -INDEX(DirectionalStars, F39), MOD(I36+2, -9)-1), -MOD(-I38+2, 9)-1)</f>
+        <f t="shared" si="6"/>
         <v>-3</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J39" s="4">
+        <f>MATCH(C39, branch,0 )</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2371,11 +2482,15 @@
         <v>2</v>
       </c>
       <c r="I40">
-        <f>IF(H40=0, IF(G40 = 0, -INDEX(DirectionalStars, F40), MOD(I37+2, -9)-1), -MOD(-I39+2, 9)-1)</f>
+        <f t="shared" si="6"/>
         <v>-6</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J40" s="4">
+        <f>MATCH(C40, branch,0 )</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -2404,11 +2519,15 @@
         <v>0</v>
       </c>
       <c r="I41">
-        <f>IF(H41=0, IF(G41 = 0, -INDEX(DirectionalStars, F41), MOD(I38+2, -9)-1), -MOD(-I40+2, 9)-1)</f>
+        <f t="shared" si="6"/>
         <v>-8</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J41" s="4">
+        <f>MATCH(C41, branch,0 )</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2437,11 +2556,15 @@
         <v>1</v>
       </c>
       <c r="I42">
-        <f>IF(H42=0, IF(G42 = 0, -INDEX(DirectionalStars, F42), MOD(I39+2, -9)-1), -MOD(-I41+2, 9)-1)</f>
+        <f t="shared" si="6"/>
         <v>-2</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J42" s="4">
+        <f>MATCH(C42, branch,0 )</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2470,11 +2593,15 @@
         <v>2</v>
       </c>
       <c r="I43">
-        <f>IF(H43=0, IF(G43 = 0, -INDEX(DirectionalStars, F43), MOD(I40+2, -9)-1), -MOD(-I42+2, 9)-1)</f>
+        <f t="shared" si="6"/>
         <v>-5</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J43" s="4">
+        <f>MATCH(C43, branch,0 )</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2503,11 +2630,15 @@
         <v>0</v>
       </c>
       <c r="I44">
-        <f>IF(H44=0, IF(G44 = 0, -INDEX(DirectionalStars, F44), MOD(I41+2, -9)-1), -MOD(-I43+2, 9)-1)</f>
+        <f t="shared" si="6"/>
         <v>-7</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J44" s="4">
+        <f>MATCH(C44, branch,0 )</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2536,11 +2667,15 @@
         <v>1</v>
       </c>
       <c r="I45">
-        <f>IF(H45=0, IF(G45 = 0, -INDEX(DirectionalStars, F45), MOD(I42+2, -9)-1), -MOD(-I44+2, 9)-1)</f>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J45" s="4">
+        <f>MATCH(C45, branch,0 )</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2569,11 +2704,15 @@
         <v>2</v>
       </c>
       <c r="I46">
-        <f>IF(H46=0, IF(G46 = 0, -INDEX(DirectionalStars, F46), MOD(I43+2, -9)-1), -MOD(-I45+2, 9)-1)</f>
+        <f t="shared" si="6"/>
         <v>-4</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J46" s="4">
+        <f>MATCH(C46, branch,0 )</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2602,11 +2741,15 @@
         <v>0</v>
       </c>
       <c r="I47">
-        <f>IF(H47=0, IF(G47 = 0, -INDEX(DirectionalStars, F47), MOD(I44+2, -9)-1), -MOD(-I46+2, 9)-1)</f>
+        <f t="shared" si="6"/>
         <v>-2</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J47" s="4">
+        <f>MATCH(C47, branch,0 )</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2635,11 +2778,15 @@
         <v>1</v>
       </c>
       <c r="I48">
-        <f>IF(H48=0, IF(G48 = 0, -INDEX(DirectionalStars, F48), MOD(I45+2, -9)-1), -MOD(-I47+2, 9)-1)</f>
+        <f t="shared" si="6"/>
         <v>-5</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J48" s="4">
+        <f>MATCH(C48, branch,0 )</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2668,11 +2815,15 @@
         <v>2</v>
       </c>
       <c r="I49">
-        <f>IF(H49=0, IF(G49 = 0, -INDEX(DirectionalStars, F49), MOD(I46+2, -9)-1), -MOD(-I48+2, 9)-1)</f>
+        <f t="shared" si="6"/>
         <v>-8</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J49" s="4">
+        <f>MATCH(C49, branch,0 )</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2701,11 +2852,15 @@
         <v>0</v>
       </c>
       <c r="I50">
-        <f>IF(H50=0, IF(G50 = 0, -INDEX(DirectionalStars, F50), MOD(I47+2, -9)-1), -MOD(-I49+2, 9)-1)</f>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J50" s="4">
+        <f>MATCH(C50, branch,0 )</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2734,11 +2889,15 @@
         <v>1</v>
       </c>
       <c r="I51">
-        <f>IF(H51=0, IF(G51 = 0, -INDEX(DirectionalStars, F51), MOD(I48+2, -9)-1), -MOD(-I50+2, 9)-1)</f>
+        <f t="shared" si="6"/>
         <v>-4</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J51" s="4">
+        <f>MATCH(C51, branch,0 )</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2767,11 +2926,15 @@
         <v>2</v>
       </c>
       <c r="I52">
-        <f>IF(H52=0, IF(G52 = 0, -INDEX(DirectionalStars, F52), MOD(I49+2, -9)-1), -MOD(-I51+2, 9)-1)</f>
+        <f t="shared" si="6"/>
         <v>-7</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J52" s="4">
+        <f>MATCH(C52, branch,0 )</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2800,11 +2963,15 @@
         <v>0</v>
       </c>
       <c r="I53">
-        <f>IF(H53=0, IF(G53 = 0, -INDEX(DirectionalStars, F53), MOD(I50+2, -9)-1), -MOD(-I52+2, 9)-1)</f>
+        <f t="shared" si="6"/>
         <v>-9</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J53" s="4">
+        <f>MATCH(C53, branch,0 )</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2833,11 +3000,15 @@
         <v>1</v>
       </c>
       <c r="I54">
-        <f>IF(H54=0, IF(G54 = 0, -INDEX(DirectionalStars, F54), MOD(I51+2, -9)-1), -MOD(-I53+2, 9)-1)</f>
+        <f t="shared" si="6"/>
         <v>-3</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J54" s="4">
+        <f>MATCH(C54, branch,0 )</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2866,11 +3037,15 @@
         <v>2</v>
       </c>
       <c r="I55">
-        <f>IF(H55=0, IF(G55 = 0, -INDEX(DirectionalStars, F55), MOD(I52+2, -9)-1), -MOD(-I54+2, 9)-1)</f>
+        <f t="shared" si="6"/>
         <v>-6</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J55" s="4">
+        <f>MATCH(C55, branch,0 )</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2899,11 +3074,15 @@
         <v>0</v>
       </c>
       <c r="I56">
-        <f>IF(H56=0, IF(G56 = 0, -INDEX(DirectionalStars, F56), MOD(I53+2, -9)-1), -MOD(-I55+2, 9)-1)</f>
+        <f t="shared" si="6"/>
         <v>-7</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J56" s="4">
+        <f>MATCH(C56, branch,0 )</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2932,11 +3111,15 @@
         <v>1</v>
       </c>
       <c r="I57">
-        <f>IF(H57=0, IF(G57 = 0, -INDEX(DirectionalStars, F57), MOD(I54+2, -9)-1), -MOD(-I56+2, 9)-1)</f>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J57" s="4">
+        <f>MATCH(C57, branch,0 )</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2965,11 +3148,15 @@
         <v>2</v>
       </c>
       <c r="I58">
-        <f>IF(H58=0, IF(G58 = 0, -INDEX(DirectionalStars, F58), MOD(I55+2, -9)-1), -MOD(-I57+2, 9)-1)</f>
+        <f t="shared" si="6"/>
         <v>-4</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J58" s="4">
+        <f>MATCH(C58, branch,0 )</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2998,11 +3185,15 @@
         <v>0</v>
       </c>
       <c r="I59">
-        <f>IF(H59=0, IF(G59 = 0, -INDEX(DirectionalStars, F59), MOD(I56+2, -9)-1), -MOD(-I58+2, 9)-1)</f>
+        <f t="shared" si="6"/>
         <v>-6</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J59" s="4">
+        <f>MATCH(C59, branch,0 )</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3031,11 +3222,15 @@
         <v>1</v>
       </c>
       <c r="I60">
-        <f>IF(H60=0, IF(G60 = 0, -INDEX(DirectionalStars, F60), MOD(I57+2, -9)-1), -MOD(-I59+2, 9)-1)</f>
+        <f t="shared" si="6"/>
         <v>-9</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J60" s="4">
+        <f>MATCH(C60, branch,0 )</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3064,11 +3259,15 @@
         <v>2</v>
       </c>
       <c r="I61">
-        <f>IF(H61=0, IF(G61 = 0, -INDEX(DirectionalStars, F61), MOD(I58+2, -9)-1), -MOD(-I60+2, 9)-1)</f>
+        <f t="shared" si="6"/>
         <v>-3</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J61" s="4">
+        <f>MATCH(C61, branch,0 )</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3097,11 +3296,15 @@
         <v>0</v>
       </c>
       <c r="I62">
-        <f>IF(H62=0, IF(G62 = 0, -INDEX(DirectionalStars, F62), MOD(I59+2, -9)-1), -MOD(-I61+2, 9)-1)</f>
+        <f t="shared" si="6"/>
         <v>-5</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J62" s="4">
+        <f>MATCH(C62, branch,0 )</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3130,11 +3333,15 @@
         <v>1</v>
       </c>
       <c r="I63">
-        <f>IF(H63=0, IF(G63 = 0, -INDEX(DirectionalStars, F63), MOD(I60+2, -9)-1), -MOD(-I62+2, 9)-1)</f>
+        <f t="shared" si="6"/>
         <v>-8</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J63" s="4">
+        <f>MATCH(C63, branch,0 )</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3163,11 +3370,15 @@
         <v>2</v>
       </c>
       <c r="I64">
-        <f>IF(H64=0, IF(G64 = 0, -INDEX(DirectionalStars, F64), MOD(I61+2, -9)-1), -MOD(-I63+2, 9)-1)</f>
+        <f t="shared" si="6"/>
         <v>-2</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J64" s="4">
+        <f>MATCH(C64, branch,0 )</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3196,11 +3407,15 @@
         <v>0</v>
       </c>
       <c r="I65">
-        <f>IF(H65=0, IF(G65 = 0, -INDEX(DirectionalStars, F65), MOD(I62+2, -9)-1), -MOD(-I64+2, 9)-1)</f>
+        <f t="shared" si="6"/>
         <v>-6</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J65" s="4">
+        <f>MATCH(C65, branch,0 )</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3229,11 +3444,15 @@
         <v>1</v>
       </c>
       <c r="I66">
-        <f>IF(H66=0, IF(G66 = 0, -INDEX(DirectionalStars, F66), MOD(I63+2, -9)-1), -MOD(-I65+2, 9)-1)</f>
+        <f t="shared" si="6"/>
         <v>-9</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J66" s="4">
+        <f>MATCH(C66, branch,0 )</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3250,23 +3469,27 @@
         <v>66</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67:F73" si="3">FLOOR( (ROW()-2)/9, 1)+1</f>
+        <f t="shared" ref="F67:F73" si="7">FLOOR( (ROW()-2)/9, 1)+1</f>
         <v>8</v>
       </c>
       <c r="G67">
-        <f t="shared" ref="G67:G73" si="4">MOD(ROW()-2, 9)</f>
+        <f t="shared" ref="G67:G73" si="8">MOD(ROW()-2, 9)</f>
         <v>2</v>
       </c>
       <c r="H67">
-        <f t="shared" ref="H67:H73" si="5">MOD(ROW()-2, 3)</f>
+        <f t="shared" ref="H67:H73" si="9">MOD(ROW()-2, 3)</f>
         <v>2</v>
       </c>
       <c r="I67">
-        <f>IF(H67=0, IF(G67 = 0, -INDEX(DirectionalStars, F67), MOD(I64+2, -9)-1), -MOD(-I66+2, 9)-1)</f>
+        <f t="shared" si="6"/>
         <v>-3</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J67" s="4">
+        <f>MATCH(C67, branch,0 )</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3283,23 +3506,27 @@
         <v>68</v>
       </c>
       <c r="F68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="G68">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="H68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I68">
-        <f>IF(H68=0, IF(G68 = 0, -INDEX(DirectionalStars, F68), MOD(I65+2, -9)-1), -MOD(-I67+2, 9)-1)</f>
+        <f t="shared" si="6"/>
         <v>-5</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J68" s="4">
+        <f>MATCH(C68, branch,0 )</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3316,23 +3543,27 @@
         <v>68</v>
       </c>
       <c r="F69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="G69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="H69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="I69">
-        <f>IF(H69=0, IF(G69 = 0, -INDEX(DirectionalStars, F69), MOD(I66+2, -9)-1), -MOD(-I68+2, 9)-1)</f>
+        <f t="shared" si="6"/>
         <v>-8</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J69" s="4">
+        <f>MATCH(C69, branch,0 )</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3349,23 +3580,27 @@
         <v>68</v>
       </c>
       <c r="F70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="G70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="H70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="I70">
-        <f>IF(H70=0, IF(G70 = 0, -INDEX(DirectionalStars, F70), MOD(I67+2, -9)-1), -MOD(-I69+2, 9)-1)</f>
+        <f t="shared" si="6"/>
         <v>-2</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J70" s="4">
+        <f>MATCH(C70, branch,0 )</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3382,23 +3617,27 @@
         <v>70</v>
       </c>
       <c r="F71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="G71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="H71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I71">
-        <f>IF(H71=0, IF(G71 = 0, -INDEX(DirectionalStars, F71), MOD(I68+2, -9)-1), -MOD(-I70+2, 9)-1)</f>
+        <f t="shared" si="6"/>
         <v>-4</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J71" s="4">
+        <f>MATCH(C71, branch,0 )</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3415,23 +3654,27 @@
         <v>70</v>
       </c>
       <c r="F72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="G72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="H72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="I72">
-        <f>IF(H72=0, IF(G72 = 0, -INDEX(DirectionalStars, F72), MOD(I69+2, -9)-1), -MOD(-I71+2, 9)-1)</f>
+        <f t="shared" si="6"/>
         <v>-7</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J72" s="4">
+        <f>MATCH(C72, branch,0 )</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3448,37 +3691,41 @@
         <v>70</v>
       </c>
       <c r="F73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="G73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="H73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="I73">
-        <f>IF(H73=0, IF(G73 = 0, -INDEX(DirectionalStars, F73), MOD(I70+2, -9)-1), -MOD(-I72+2, 9)-1)</f>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
+      <c r="J73" s="4">
+        <f>MATCH(C73, branch,0 )</f>
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:I2 I3:I37 F3:H73 A3:E37">
-    <cfRule type="expression" dxfId="22" priority="1">
+  <conditionalFormatting sqref="A38:E73 I38:I73">
+    <cfRule type="expression" dxfId="18" priority="3">
+      <formula>MOD(ROW()-1, 9)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="4">
+      <formula>MOD(ROW()-1, 3)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:I2 A3:E37 I3:I37 F3:H73">
+    <cfRule type="expression" dxfId="16" priority="1">
       <formula>MOD(ROW()-1, 9)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="2">
+    <cfRule type="expression" dxfId="15" priority="2">
       <formula>MOD(ROW()-1, 3)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A38:E73 I38:I73">
-    <cfRule type="expression" dxfId="20" priority="3">
-      <formula>MOD(ROW()-1, 9)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="19" priority="4">
-      <formula>MOD(ROW()-1, 3)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3490,8 +3737,8 @@
   <dimension ref="A1:J76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D35" sqref="D35:E37"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3504,35 +3751,52 @@
     <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>76</v>
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="str">
+        <f>header</f>
+        <v>序</v>
+      </c>
+      <c r="B1" s="2" t="str">
+        <f>header</f>
+        <v>農月</v>
+      </c>
+      <c r="C1" s="2" t="str">
+        <f>header</f>
+        <v>支</v>
+      </c>
+      <c r="D1" s="2" t="str">
+        <f>header</f>
+        <v>節氣</v>
+      </c>
+      <c r="E1" s="2" t="str">
+        <f>header</f>
+        <v>西月</v>
+      </c>
+      <c r="F1" s="2" t="str">
+        <f>header</f>
+        <v>月
+row/9</v>
+      </c>
+      <c r="G1" s="2" t="str">
+        <f>header</f>
+        <v>元
+mod(row,9)</v>
+      </c>
+      <c r="H1" s="2" t="str">
+        <f>header</f>
+        <v>節氣
+mod(row, 3)</v>
+      </c>
+      <c r="I1" s="2" t="str">
+        <f>header</f>
+        <v>局</v>
+      </c>
+      <c r="J1" s="2" t="str">
+        <f>header</f>
+        <v>lunar month index</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -3555,6 +3819,10 @@
         <f>I74</f>
         <v>-4</v>
       </c>
+      <c r="J2">
+        <f>MATCH(C2, branch,0 )</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -3576,6 +3844,10 @@
         <f>I75</f>
         <v>-7</v>
       </c>
+      <c r="J3">
+        <f>MATCH(C3, branch,0 )</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -3597,6 +3869,10 @@
         <f>I76</f>
         <v>-1</v>
       </c>
+      <c r="J4">
+        <f>MATCH(C4, branch,0 )</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -3630,7 +3906,10 @@
         <f>IF(H5=0, IF(G5 = 0, INDEX(DirectionalStars, F5), MOD(9+#REF!, 9)+1), MOD(9+I1-4, 9)+1)</f>
         <v>1</v>
       </c>
-      <c r="J5" s="4"/>
+      <c r="J5">
+        <f>MATCH(C5, branch,0 )</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -3664,6 +3943,10 @@
         <f>IF(H6=0, IF(G6 = 0, INDEX(DirectionalStars, F6), MOD(9+#REF!, 9)+1), MOD(9+I5-4, 9)+1)</f>
         <v>7</v>
       </c>
+      <c r="J6">
+        <f>MATCH(C6, branch,0 )</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -3697,6 +3980,10 @@
         <f>IF(H7=0, IF(G7 = 0, INDEX(DirectionalStars, F7), MOD(9+I1, 9)+1), MOD(9+I6-4, 9)+1)</f>
         <v>4</v>
       </c>
+      <c r="J7">
+        <f>MATCH(C7, branch,0 )</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -3727,7 +4014,11 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <f>IF(H8=0, IF(G8 = 0, INDEX(DirectionalStars, F8), MOD(9+I5, 9)+1), MOD(9+I7-4, 9)+1)</f>
+        <f t="shared" ref="I8:I17" si="3">IF(H8=0, IF(G8 = 0, INDEX(DirectionalStars, F8), MOD(9+I5, 9)+1), MOD(9+I7-4, 9)+1)</f>
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <f>MATCH(C8, branch,0 )</f>
         <v>2</v>
       </c>
     </row>
@@ -3760,8 +4051,12 @@
         <v>1</v>
       </c>
       <c r="I9">
-        <f>IF(H9=0, IF(G9 = 0, INDEX(DirectionalStars, F9), MOD(9+I6, 9)+1), MOD(9+I8-4, 9)+1)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
+      </c>
+      <c r="J9">
+        <f>MATCH(C9, branch,0 )</f>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -3793,8 +4088,12 @@
         <v>2</v>
       </c>
       <c r="I10">
-        <f>IF(H10=0, IF(G10 = 0, INDEX(DirectionalStars, F10), MOD(9+I7, 9)+1), MOD(9+I9-4, 9)+1)</f>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <f>MATCH(C10, branch,0 )</f>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -3826,8 +4125,12 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <f>IF(H11=0, IF(G11 = 0, INDEX(DirectionalStars, F11), MOD(9+I8, 9)+1), MOD(9+I10-4, 9)+1)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
+      </c>
+      <c r="J11">
+        <f>MATCH(C11, branch,0 )</f>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -3859,8 +4162,12 @@
         <v>1</v>
       </c>
       <c r="I12">
-        <f>IF(H12=0, IF(G12 = 0, INDEX(DirectionalStars, F12), MOD(9+I9, 9)+1), MOD(9+I11-4, 9)+1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
+      </c>
+      <c r="J12">
+        <f>MATCH(C12, branch,0 )</f>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -3892,8 +4199,12 @@
         <v>2</v>
       </c>
       <c r="I13">
-        <f>IF(H13=0, IF(G13 = 0, INDEX(DirectionalStars, F13), MOD(9+I10, 9)+1), MOD(9+I12-4, 9)+1)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
+      </c>
+      <c r="J13">
+        <f>MATCH(C13, branch,0 )</f>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -3925,8 +4236,12 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <f>IF(H14=0, IF(G14 = 0, INDEX(DirectionalStars, F14), MOD(9+I11, 9)+1), MOD(9+I13-4, 9)+1)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
+      </c>
+      <c r="J14">
+        <f>MATCH(C14, branch,0 )</f>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -3958,8 +4273,12 @@
         <v>1</v>
       </c>
       <c r="I15">
-        <f>IF(H15=0, IF(G15 = 0, INDEX(DirectionalStars, F15), MOD(9+I12, 9)+1), MOD(9+I14-4, 9)+1)</f>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="J15">
+        <f>MATCH(C15, branch,0 )</f>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -3991,11 +4310,15 @@
         <v>2</v>
       </c>
       <c r="I16">
-        <f>IF(H16=0, IF(G16 = 0, INDEX(DirectionalStars, F16), MOD(9+I13, 9)+1), MOD(9+I15-4, 9)+1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <f>MATCH(C16, branch,0 )</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4024,11 +4347,15 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <f>IF(H17=0, IF(G17 = 0, INDEX(DirectionalStars, F17), MOD(9+I14, 9)+1), MOD(9+I16-4, 9)+1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <f>MATCH(C17, branch,0 )</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4060,8 +4387,12 @@
         <f>IF(H18=0, IF(G18 = 0, INDEX(DirectionalStars, F18), MOD(9+#REF!, 9)+1), MOD(9+I17-4, 9)+1)</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <f>MATCH(C18, branch,0 )</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4093,8 +4424,12 @@
         <f>IF(H19=0, IF(G19 = 0, INDEX(DirectionalStars, F19), MOD(9+#REF!, 9)+1), MOD(9+I18-4, 9)+1)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19">
+        <f>MATCH(C19, branch,0 )</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4123,11 +4458,15 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <f>IF(H20=0, IF(G20 = 0, INDEX(DirectionalStars, F20), MOD(9+I17, 9)+1), MOD(9+I19-4, 9)+1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I20:I30" si="4">IF(H20=0, IF(G20 = 0, INDEX(DirectionalStars, F20), MOD(9+I17, 9)+1), MOD(9+I19-4, 9)+1)</f>
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <f>MATCH(C20, branch,0 )</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4156,11 +4495,15 @@
         <v>1</v>
       </c>
       <c r="I21">
-        <f>IF(H21=0, IF(G21 = 0, INDEX(DirectionalStars, F21), MOD(9+I18, 9)+1), MOD(9+I20-4, 9)+1)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21">
+        <f>MATCH(C21, branch,0 )</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4189,11 +4532,15 @@
         <v>2</v>
       </c>
       <c r="I22">
-        <f>IF(H22=0, IF(G22 = 0, INDEX(DirectionalStars, F22), MOD(9+I19, 9)+1), MOD(9+I21-4, 9)+1)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="J22">
+        <f>MATCH(C22, branch,0 )</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4222,11 +4569,15 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <f>IF(H23=0, IF(G23 = 0, INDEX(DirectionalStars, F23), MOD(9+I20, 9)+1), MOD(9+I22-4, 9)+1)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23">
+        <f>MATCH(C23, branch,0 )</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4255,11 +4606,15 @@
         <v>1</v>
       </c>
       <c r="I24">
-        <f>IF(H24=0, IF(G24 = 0, INDEX(DirectionalStars, F24), MOD(9+I21, 9)+1), MOD(9+I23-4, 9)+1)</f>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24">
+        <f>MATCH(C24, branch,0 )</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4288,11 +4643,15 @@
         <v>2</v>
       </c>
       <c r="I25">
-        <f>IF(H25=0, IF(G25 = 0, INDEX(DirectionalStars, F25), MOD(9+I22, 9)+1), MOD(9+I24-4, 9)+1)</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25">
+        <f>MATCH(C25, branch,0 )</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4321,11 +4680,15 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <f>IF(H26=0, IF(G26 = 0, INDEX(DirectionalStars, F26), MOD(9+I23, 9)+1), MOD(9+I25-4, 9)+1)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="J26">
+        <f>MATCH(C26, branch,0 )</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4354,11 +4717,15 @@
         <v>1</v>
       </c>
       <c r="I27">
-        <f>IF(H27=0, IF(G27 = 0, INDEX(DirectionalStars, F27), MOD(9+I24, 9)+1), MOD(9+I26-4, 9)+1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <f>MATCH(C27, branch,0 )</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4387,11 +4754,15 @@
         <v>2</v>
       </c>
       <c r="I28">
-        <f>IF(H28=0, IF(G28 = 0, INDEX(DirectionalStars, F28), MOD(9+I25, 9)+1), MOD(9+I27-4, 9)+1)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28">
+        <f>MATCH(C28, branch,0 )</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4420,11 +4791,15 @@
         <v>0</v>
       </c>
       <c r="I29">
-        <f>IF(H29=0, IF(G29 = 0, INDEX(DirectionalStars, F29), MOD(9+I26, 9)+1), MOD(9+I28-4, 9)+1)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="J29">
+        <f>MATCH(C29, branch,0 )</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4453,11 +4828,15 @@
         <v>1</v>
       </c>
       <c r="I30">
-        <f>IF(H30=0, IF(G30 = 0, INDEX(DirectionalStars, F30), MOD(9+I27, 9)+1), MOD(9+I29-4, 9)+1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="J30">
+        <f>MATCH(C30, branch,0 )</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4489,8 +4868,12 @@
         <f>IF(H31=0, IF(G31 = 0, INDEX(DirectionalStars, F31), MOD(9+#REF!, 9)+1), MOD(9+I30-4, 9)+1)</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31">
+        <f>MATCH(C31, branch,0 )</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4522,8 +4905,12 @@
         <f>IF(H32=0, IF(G32 = 0, INDEX(DirectionalStars, F32), MOD(9+#REF!, 9)+1), MOD(9+I31-4, 9)+1)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32">
+        <f>MATCH(C32, branch,0 )</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4552,11 +4939,15 @@
         <v>1</v>
       </c>
       <c r="I33">
-        <f>IF(H33=0, IF(G33 = 0, INDEX(DirectionalStars, F33), MOD(9+I30, 9)+1), MOD(9+I32-4, 9)+1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I33:I40" si="5">IF(H33=0, IF(G33 = 0, INDEX(DirectionalStars, F33), MOD(9+I30, 9)+1), MOD(9+I32-4, 9)+1)</f>
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <f>MATCH(C33, branch,0 )</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4585,11 +4976,15 @@
         <v>2</v>
       </c>
       <c r="I34">
-        <f>IF(H34=0, IF(G34 = 0, INDEX(DirectionalStars, F34), MOD(9+I31, 9)+1), MOD(9+I33-4, 9)+1)</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34">
+        <f>MATCH(C34, branch,0 )</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4618,11 +5013,15 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <f>IF(H35=0, IF(G35 = 0, INDEX(DirectionalStars, F35), MOD(9+I32, 9)+1), MOD(9+I34-4, 9)+1)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="J35">
+        <f>MATCH(C35, branch,0 )</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4651,11 +5050,15 @@
         <v>1</v>
       </c>
       <c r="I36">
-        <f>IF(H36=0, IF(G36 = 0, INDEX(DirectionalStars, F36), MOD(9+I33, 9)+1), MOD(9+I35-4, 9)+1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="J36">
+        <f>MATCH(C36, branch,0 )</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4684,11 +5087,15 @@
         <v>2</v>
       </c>
       <c r="I37">
-        <f>IF(H37=0, IF(G37 = 0, INDEX(DirectionalStars, F37), MOD(9+I34, 9)+1), MOD(9+I36-4, 9)+1)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J37">
+        <f>MATCH(C37, branch,0 )</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4717,24 +5124,28 @@
         <v>0</v>
       </c>
       <c r="I38">
-        <f>IF(H38=0, IF(G38 = 0, INDEX(DirectionalStars, F38), MOD(9+I35, 9)+1), MOD(9+I37-4, 9)+1)</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="6">
+      <c r="J38">
+        <f>MATCH(C38, branch,0 )</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" t="s">
         <v>34</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" t="s">
         <v>35</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E39" t="s">
         <v>36</v>
       </c>
       <c r="F39">
@@ -4750,24 +5161,28 @@
         <v>1</v>
       </c>
       <c r="I39">
-        <f>IF(H39=0, IF(G39 = 0, INDEX(DirectionalStars, F39), MOD(9+I36, 9)+1), MOD(9+I38-4, 9)+1)</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="6">
+      <c r="J39">
+        <f>MATCH(C39, branch,0 )</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" t="s">
         <v>33</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" t="s">
         <v>34</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D40" t="s">
         <v>35</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="E40" t="s">
         <v>36</v>
       </c>
       <c r="F40">
@@ -4783,11 +5198,15 @@
         <v>2</v>
       </c>
       <c r="I40">
-        <f>IF(H40=0, IF(G40 = 0, INDEX(DirectionalStars, F40), MOD(9+I37, 9)+1), MOD(9+I39-4, 9)+1)</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J40">
+        <f>MATCH(C40, branch,0 )</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4816,11 +5235,15 @@
         <v>0</v>
       </c>
       <c r="I41">
-        <f>IF(H41=0, IF(G41 = 0, -INDEX(DirectionalStars, F41), MOD(I38+2, -9)-1), -MOD(-I40+2, 9)-1)</f>
+        <f t="shared" ref="I41:I76" si="6">IF(H41=0, IF(G41 = 0, -INDEX(DirectionalStars, F41), MOD(I38+2, -9)-1), -MOD(-I40+2, 9)-1)</f>
         <v>-9</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J41">
+        <f>MATCH(C41, branch,0 )</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -4849,11 +5272,15 @@
         <v>1</v>
       </c>
       <c r="I42">
-        <f>IF(H42=0, IF(G42 = 0, -INDEX(DirectionalStars, F42), MOD(I39+2, -9)-1), -MOD(-I41+2, 9)-1)</f>
+        <f t="shared" si="6"/>
         <v>-3</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J42">
+        <f>MATCH(C42, branch,0 )</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4882,24 +5309,28 @@
         <v>2</v>
       </c>
       <c r="I43">
-        <f>IF(H43=0, IF(G43 = 0, -INDEX(DirectionalStars, F43), MOD(I40+2, -9)-1), -MOD(-I42+2, 9)-1)</f>
+        <f t="shared" si="6"/>
         <v>-6</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="6">
+      <c r="J43">
+        <f>MATCH(C43, branch,0 )</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" t="s">
         <v>39</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" t="s">
         <v>40</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D44" t="s">
         <v>41</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="E44" t="s">
         <v>42</v>
       </c>
       <c r="F44">
@@ -4915,24 +5346,28 @@
         <v>0</v>
       </c>
       <c r="I44">
-        <f>IF(H44=0, IF(G44 = 0, -INDEX(DirectionalStars, F44), MOD(I41+2, -9)-1), -MOD(-I43+2, 9)-1)</f>
+        <f t="shared" si="6"/>
         <v>-8</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="6">
+      <c r="J44">
+        <f>MATCH(C44, branch,0 )</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" t="s">
         <v>39</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" t="s">
         <v>40</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="D45" t="s">
         <v>41</v>
       </c>
-      <c r="E45" s="6" t="s">
+      <c r="E45" t="s">
         <v>42</v>
       </c>
       <c r="F45">
@@ -4948,11 +5383,15 @@
         <v>1</v>
       </c>
       <c r="I45">
-        <f>IF(H45=0, IF(G45 = 0, -INDEX(DirectionalStars, F45), MOD(I42+2, -9)-1), -MOD(-I44+2, 9)-1)</f>
+        <f t="shared" si="6"/>
         <v>-2</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J45">
+        <f>MATCH(C45, branch,0 )</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4981,11 +5420,15 @@
         <v>2</v>
       </c>
       <c r="I46">
-        <f>IF(H46=0, IF(G46 = 0, -INDEX(DirectionalStars, F46), MOD(I43+2, -9)-1), -MOD(-I45+2, 9)-1)</f>
+        <f t="shared" si="6"/>
         <v>-5</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J46">
+        <f>MATCH(C46, branch,0 )</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -5014,11 +5457,15 @@
         <v>0</v>
       </c>
       <c r="I47">
-        <f>IF(H47=0, IF(G47 = 0, -INDEX(DirectionalStars, F47), MOD(I44+2, -9)-1), -MOD(-I46+2, 9)-1)</f>
+        <f t="shared" si="6"/>
         <v>-7</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J47">
+        <f>MATCH(C47, branch,0 )</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -5047,11 +5494,15 @@
         <v>1</v>
       </c>
       <c r="I48">
-        <f>IF(H48=0, IF(G48 = 0, -INDEX(DirectionalStars, F48), MOD(I45+2, -9)-1), -MOD(-I47+2, 9)-1)</f>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J48">
+        <f>MATCH(C48, branch,0 )</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -5080,11 +5531,15 @@
         <v>2</v>
       </c>
       <c r="I49">
-        <f>IF(H49=0, IF(G49 = 0, -INDEX(DirectionalStars, F49), MOD(I46+2, -9)-1), -MOD(-I48+2, 9)-1)</f>
+        <f t="shared" si="6"/>
         <v>-4</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J49">
+        <f>MATCH(C49, branch,0 )</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -5113,11 +5568,15 @@
         <v>0</v>
       </c>
       <c r="I50">
-        <f>IF(H50=0, IF(G50 = 0, -INDEX(DirectionalStars, F50), MOD(I47+2, -9)-1), -MOD(-I49+2, 9)-1)</f>
+        <f t="shared" si="6"/>
         <v>-2</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J50">
+        <f>MATCH(C50, branch,0 )</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -5146,11 +5605,15 @@
         <v>1</v>
       </c>
       <c r="I51">
-        <f>IF(H51=0, IF(G51 = 0, -INDEX(DirectionalStars, F51), MOD(I48+2, -9)-1), -MOD(-I50+2, 9)-1)</f>
+        <f t="shared" si="6"/>
         <v>-5</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J51">
+        <f>MATCH(C51, branch,0 )</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -5179,11 +5642,15 @@
         <v>2</v>
       </c>
       <c r="I52">
-        <f>IF(H52=0, IF(G52 = 0, -INDEX(DirectionalStars, F52), MOD(I49+2, -9)-1), -MOD(-I51+2, 9)-1)</f>
+        <f t="shared" si="6"/>
         <v>-8</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J52">
+        <f>MATCH(C52, branch,0 )</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -5212,11 +5679,15 @@
         <v>0</v>
       </c>
       <c r="I53">
-        <f>IF(H53=0, IF(G53 = 0, -INDEX(DirectionalStars, F53), MOD(I50+2, -9)-1), -MOD(-I52+2, 9)-1)</f>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J53">
+        <f>MATCH(C53, branch,0 )</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -5245,11 +5716,15 @@
         <v>1</v>
       </c>
       <c r="I54">
-        <f>IF(H54=0, IF(G54 = 0, -INDEX(DirectionalStars, F54), MOD(I51+2, -9)-1), -MOD(-I53+2, 9)-1)</f>
+        <f t="shared" si="6"/>
         <v>-4</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J54">
+        <f>MATCH(C54, branch,0 )</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -5278,11 +5753,15 @@
         <v>2</v>
       </c>
       <c r="I55">
-        <f>IF(H55=0, IF(G55 = 0, -INDEX(DirectionalStars, F55), MOD(I52+2, -9)-1), -MOD(-I54+2, 9)-1)</f>
+        <f t="shared" si="6"/>
         <v>-7</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J55">
+        <f>MATCH(C55, branch,0 )</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -5311,11 +5790,15 @@
         <v>0</v>
       </c>
       <c r="I56">
-        <f>IF(H56=0, IF(G56 = 0, -INDEX(DirectionalStars, F56), MOD(I53+2, -9)-1), -MOD(-I55+2, 9)-1)</f>
+        <f t="shared" si="6"/>
         <v>-9</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J56">
+        <f>MATCH(C56, branch,0 )</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -5344,11 +5827,15 @@
         <v>1</v>
       </c>
       <c r="I57">
-        <f>IF(H57=0, IF(G57 = 0, -INDEX(DirectionalStars, F57), MOD(I54+2, -9)-1), -MOD(-I56+2, 9)-1)</f>
+        <f t="shared" si="6"/>
         <v>-3</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J57">
+        <f>MATCH(C57, branch,0 )</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -5377,11 +5864,15 @@
         <v>2</v>
       </c>
       <c r="I58">
-        <f>IF(H58=0, IF(G58 = 0, -INDEX(DirectionalStars, F58), MOD(I55+2, -9)-1), -MOD(-I57+2, 9)-1)</f>
+        <f t="shared" si="6"/>
         <v>-6</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J58">
+        <f>MATCH(C58, branch,0 )</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -5410,11 +5901,15 @@
         <v>0</v>
       </c>
       <c r="I59">
-        <f>IF(H59=0, IF(G59 = 0, -INDEX(DirectionalStars, F59), MOD(I56+2, -9)-1), -MOD(-I58+2, 9)-1)</f>
+        <f t="shared" si="6"/>
         <v>-7</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J59">
+        <f>MATCH(C59, branch,0 )</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -5443,11 +5938,15 @@
         <v>1</v>
       </c>
       <c r="I60">
-        <f>IF(H60=0, IF(G60 = 0, -INDEX(DirectionalStars, F60), MOD(I57+2, -9)-1), -MOD(-I59+2, 9)-1)</f>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J60">
+        <f>MATCH(C60, branch,0 )</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -5476,11 +5975,15 @@
         <v>2</v>
       </c>
       <c r="I61">
-        <f>IF(H61=0, IF(G61 = 0, -INDEX(DirectionalStars, F61), MOD(I58+2, -9)-1), -MOD(-I60+2, 9)-1)</f>
+        <f t="shared" si="6"/>
         <v>-4</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J61">
+        <f>MATCH(C61, branch,0 )</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -5509,11 +6012,15 @@
         <v>0</v>
       </c>
       <c r="I62">
-        <f>IF(H62=0, IF(G62 = 0, -INDEX(DirectionalStars, F62), MOD(I59+2, -9)-1), -MOD(-I61+2, 9)-1)</f>
+        <f t="shared" si="6"/>
         <v>-6</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J62">
+        <f>MATCH(C62, branch,0 )</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -5542,11 +6049,15 @@
         <v>1</v>
       </c>
       <c r="I63">
-        <f>IF(H63=0, IF(G63 = 0, -INDEX(DirectionalStars, F63), MOD(I60+2, -9)-1), -MOD(-I62+2, 9)-1)</f>
+        <f t="shared" si="6"/>
         <v>-9</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J63">
+        <f>MATCH(C63, branch,0 )</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -5575,11 +6086,15 @@
         <v>2</v>
       </c>
       <c r="I64">
-        <f>IF(H64=0, IF(G64 = 0, -INDEX(DirectionalStars, F64), MOD(I61+2, -9)-1), -MOD(-I63+2, 9)-1)</f>
+        <f t="shared" si="6"/>
         <v>-3</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J64">
+        <f>MATCH(C64, branch,0 )</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -5608,11 +6123,15 @@
         <v>0</v>
       </c>
       <c r="I65">
-        <f>IF(H65=0, IF(G65 = 0, -INDEX(DirectionalStars, F65), MOD(I62+2, -9)-1), -MOD(-I64+2, 9)-1)</f>
+        <f t="shared" si="6"/>
         <v>-5</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J65">
+        <f>MATCH(C65, branch,0 )</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -5641,11 +6160,15 @@
         <v>1</v>
       </c>
       <c r="I66">
-        <f>IF(H66=0, IF(G66 = 0, -INDEX(DirectionalStars, F66), MOD(I63+2, -9)-1), -MOD(-I65+2, 9)-1)</f>
+        <f t="shared" si="6"/>
         <v>-8</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J66">
+        <f>MATCH(C66, branch,0 )</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -5674,11 +6197,15 @@
         <v>2</v>
       </c>
       <c r="I67">
-        <f>IF(H67=0, IF(G67 = 0, -INDEX(DirectionalStars, F67), MOD(I64+2, -9)-1), -MOD(-I66+2, 9)-1)</f>
+        <f t="shared" si="6"/>
         <v>-2</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J67">
+        <f>MATCH(C67, branch,0 )</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -5707,11 +6234,15 @@
         <v>0</v>
       </c>
       <c r="I68">
-        <f>IF(H68=0, IF(G68 = 0, -INDEX(DirectionalStars, F68), MOD(I65+2, -9)-1), -MOD(-I67+2, 9)-1)</f>
+        <f t="shared" si="6"/>
         <v>-6</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J68">
+        <f>MATCH(C68, branch,0 )</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -5740,11 +6271,15 @@
         <v>1</v>
       </c>
       <c r="I69">
-        <f>IF(H69=0, IF(G69 = 0, -INDEX(DirectionalStars, F69), MOD(I66+2, -9)-1), -MOD(-I68+2, 9)-1)</f>
+        <f t="shared" si="6"/>
         <v>-9</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J69">
+        <f>MATCH(C69, branch,0 )</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -5761,23 +6296,27 @@
         <v>66</v>
       </c>
       <c r="F70">
-        <f t="shared" ref="F70:F76" si="3">FLOOR( (ROW()-5)/9, 1)+1</f>
+        <f t="shared" ref="F70:F76" si="7">FLOOR( (ROW()-5)/9, 1)+1</f>
         <v>8</v>
       </c>
       <c r="G70">
-        <f t="shared" ref="G70:G76" si="4">MOD(ROW()-5, 9)</f>
+        <f t="shared" ref="G70:G76" si="8">MOD(ROW()-5, 9)</f>
         <v>2</v>
       </c>
       <c r="H70">
-        <f t="shared" ref="H70:H76" si="5">MOD(ROW()-5, 3)</f>
+        <f t="shared" ref="H70:H76" si="9">MOD(ROW()-5, 3)</f>
         <v>2</v>
       </c>
       <c r="I70">
-        <f>IF(H70=0, IF(G70 = 0, -INDEX(DirectionalStars, F70), MOD(I67+2, -9)-1), -MOD(-I69+2, 9)-1)</f>
+        <f t="shared" si="6"/>
         <v>-3</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J70">
+        <f>MATCH(C70, branch,0 )</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -5794,23 +6333,27 @@
         <v>68</v>
       </c>
       <c r="F71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="G71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="H71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I71">
-        <f>IF(H71=0, IF(G71 = 0, -INDEX(DirectionalStars, F71), MOD(I68+2, -9)-1), -MOD(-I70+2, 9)-1)</f>
+        <f t="shared" si="6"/>
         <v>-5</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J71">
+        <f>MATCH(C71, branch,0 )</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -5827,23 +6370,27 @@
         <v>68</v>
       </c>
       <c r="F72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="G72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="H72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="I72">
-        <f>IF(H72=0, IF(G72 = 0, -INDEX(DirectionalStars, F72), MOD(I69+2, -9)-1), -MOD(-I71+2, 9)-1)</f>
+        <f t="shared" si="6"/>
         <v>-8</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J72">
+        <f>MATCH(C72, branch,0 )</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -5860,23 +6407,27 @@
         <v>68</v>
       </c>
       <c r="F73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="G73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="H73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="I73">
-        <f>IF(H73=0, IF(G73 = 0, -INDEX(DirectionalStars, F73), MOD(I70+2, -9)-1), -MOD(-I72+2, 9)-1)</f>
+        <f t="shared" si="6"/>
         <v>-2</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J73">
+        <f>MATCH(C73, branch,0 )</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -5893,23 +6444,27 @@
         <v>70</v>
       </c>
       <c r="F74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="G74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="H74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I74">
-        <f>IF(H74=0, IF(G74 = 0, -INDEX(DirectionalStars, F74), MOD(I71+2, -9)-1), -MOD(-I73+2, 9)-1)</f>
+        <f t="shared" si="6"/>
         <v>-4</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J74">
+        <f>MATCH(C74, branch,0 )</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -5926,23 +6481,27 @@
         <v>70</v>
       </c>
       <c r="F75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="G75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="H75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="I75">
-        <f>IF(H75=0, IF(G75 = 0, -INDEX(DirectionalStars, F75), MOD(I72+2, -9)-1), -MOD(-I74+2, 9)-1)</f>
+        <f t="shared" si="6"/>
         <v>-7</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J75">
+        <f>MATCH(C75, branch,0 )</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -5959,44 +6518,48 @@
         <v>70</v>
       </c>
       <c r="F76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="G76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="H76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="I76">
-        <f>IF(H76=0, IF(G76 = 0, -INDEX(DirectionalStars, F76), MOD(I73+2, -9)-1), -MOD(-I75+2, 9)-1)</f>
+        <f t="shared" si="6"/>
         <v>-1</v>
+      </c>
+      <c r="J76">
+        <f>MATCH(C76, branch,0 )</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A41:E76 I41:I76">
-    <cfRule type="expression" dxfId="18" priority="6">
+    <cfRule type="expression" dxfId="14" priority="6">
       <formula>MOD(ROW()-1, 9)=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="7">
+    <cfRule type="expression" dxfId="13" priority="7">
       <formula>MOD(ROW()-1, 3)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:I5 A6:E34 I6:I40 F6:H76 A38:E40 A35:C37 E35:E37">
-    <cfRule type="expression" dxfId="16" priority="4">
+  <conditionalFormatting sqref="A2:I5 A6:E34 I6:I40 F6:H76 A35:C37 E35:E37 A38:E40">
+    <cfRule type="expression" dxfId="12" priority="4">
       <formula>MOD(ROW()-1, 9)=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="5">
+    <cfRule type="expression" dxfId="11" priority="5">
       <formula>MOD(ROW()-1, 3)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:D37">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="10" priority="1">
       <formula>MOD(ROW()-1, 9)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="9" priority="2">
       <formula>MOD(ROW()-1, 3)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6008,9 +6571,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEA12C89-30C0-4A76-B059-897414F70D65}">
   <dimension ref="A1:J76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I76" sqref="A1:I76"/>
+      <selection pane="bottomLeft" activeCell="J2" sqref="J2:J76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6027,32 +6590,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>76</v>
+      <c r="A1" s="2" t="str">
+        <f>header</f>
+        <v>序</v>
+      </c>
+      <c r="B1" s="2" t="str">
+        <f>header</f>
+        <v>農月</v>
+      </c>
+      <c r="C1" s="2" t="str">
+        <f>header</f>
+        <v>支</v>
+      </c>
+      <c r="D1" s="2" t="str">
+        <f>header</f>
+        <v>節氣</v>
+      </c>
+      <c r="E1" s="2" t="str">
+        <f>header</f>
+        <v>西月</v>
+      </c>
+      <c r="F1" s="2" t="str">
+        <f>header</f>
+        <v>月
+row/9</v>
+      </c>
+      <c r="G1" s="2" t="str">
+        <f>header</f>
+        <v>元
+mod(row,9)</v>
+      </c>
+      <c r="H1" s="2" t="str">
+        <f>header</f>
+        <v>節氣
+mod(row, 3)</v>
+      </c>
+      <c r="I1" s="2" t="str">
+        <f>header</f>
+        <v>局</v>
+      </c>
+      <c r="J1" s="2" t="str">
+        <f>header</f>
+        <v>lunar month index</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -6087,7 +6666,10 @@
         <f>IF(H2=0, IF(G2 = 0, INDEX(DirectionalStars, F2), MOD(9+#REF!, 9)+1), MOD(9+I1-4, 9)+1)</f>
         <v>1</v>
       </c>
-      <c r="J2" s="4"/>
+      <c r="J2" s="4">
+        <f>MATCH(C2, branch,0 )</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -6106,21 +6688,25 @@
         <v>70</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F66" si="0">FLOOR( (ROW()-2)/9, 1)+1</f>
+        <f t="shared" ref="F3:F37" si="0">FLOOR( (ROW()-2)/9, 1)+1</f>
         <v>1</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G66" si="1">MOD(ROW()-2, 9)</f>
+        <f t="shared" ref="G3:G37" si="1">MOD(ROW()-2, 9)</f>
         <v>1</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H66" si="2">MOD(ROW()-2, 3)</f>
+        <f t="shared" ref="H3:H37" si="2">MOD(ROW()-2, 3)</f>
         <v>1</v>
       </c>
       <c r="I3">
         <f>IF(H3=0, IF(G3 = 0, INDEX(DirectionalStars, F3), MOD(9+#REF!, 9)+1), MOD(9+I2-4, 9)+1)</f>
         <v>7</v>
       </c>
+      <c r="J3" s="4">
+        <f>MATCH(C3, branch,0 )</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -6151,8 +6737,12 @@
         <v>2</v>
       </c>
       <c r="I4">
-        <f>IF(H4=0, IF(G4 = 0, INDEX(DirectionalStars, F4), MOD(9+I1, 9)+1), MOD(9+I3-4, 9)+1)</f>
-        <v>4</v>
+        <f t="shared" ref="I4:I14" si="3">IF(H4=0, IF(G4 = 0, INDEX(DirectionalStars, F4), MOD(9+I1, 9)+1), MOD(9+I3-4, 9)+1)</f>
+        <v>4</v>
+      </c>
+      <c r="J4" s="4">
+        <f>MATCH(C4, branch,0 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -6184,8 +6774,12 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <f>IF(H5=0, IF(G5 = 0, INDEX(DirectionalStars, F5), MOD(9+I2, 9)+1), MOD(9+I4-4, 9)+1)</f>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="J5" s="4">
+        <f>MATCH(C5, branch,0 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -6217,8 +6811,12 @@
         <v>1</v>
       </c>
       <c r="I6">
-        <f>IF(H6=0, IF(G6 = 0, INDEX(DirectionalStars, F6), MOD(9+I3, 9)+1), MOD(9+I5-4, 9)+1)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
+      </c>
+      <c r="J6" s="4">
+        <f>MATCH(C6, branch,0 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -6250,8 +6848,12 @@
         <v>2</v>
       </c>
       <c r="I7">
-        <f>IF(H7=0, IF(G7 = 0, INDEX(DirectionalStars, F7), MOD(9+I4, 9)+1), MOD(9+I6-4, 9)+1)</f>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="J7" s="4">
+        <f>MATCH(C7, branch,0 )</f>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -6283,8 +6885,12 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <f>IF(H8=0, IF(G8 = 0, INDEX(DirectionalStars, F8), MOD(9+I5, 9)+1), MOD(9+I7-4, 9)+1)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
+      </c>
+      <c r="J8" s="4">
+        <f>MATCH(C8, branch,0 )</f>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -6316,8 +6922,12 @@
         <v>1</v>
       </c>
       <c r="I9">
-        <f>IF(H9=0, IF(G9 = 0, INDEX(DirectionalStars, F9), MOD(9+I6, 9)+1), MOD(9+I8-4, 9)+1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
+      </c>
+      <c r="J9" s="4">
+        <f>MATCH(C9, branch,0 )</f>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -6349,8 +6959,12 @@
         <v>2</v>
       </c>
       <c r="I10">
-        <f>IF(H10=0, IF(G10 = 0, INDEX(DirectionalStars, F10), MOD(9+I7, 9)+1), MOD(9+I9-4, 9)+1)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
+      </c>
+      <c r="J10" s="4">
+        <f>MATCH(C10, branch,0 )</f>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -6382,8 +6996,12 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <f>IF(H11=0, IF(G11 = 0, INDEX(DirectionalStars, F11), MOD(9+I8, 9)+1), MOD(9+I10-4, 9)+1)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
+      </c>
+      <c r="J11" s="4">
+        <f>MATCH(C11, branch,0 )</f>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -6415,8 +7033,12 @@
         <v>1</v>
       </c>
       <c r="I12">
-        <f>IF(H12=0, IF(G12 = 0, INDEX(DirectionalStars, F12), MOD(9+I9, 9)+1), MOD(9+I11-4, 9)+1)</f>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="J12" s="4">
+        <f>MATCH(C12, branch,0 )</f>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -6448,8 +7070,12 @@
         <v>2</v>
       </c>
       <c r="I13">
-        <f>IF(H13=0, IF(G13 = 0, INDEX(DirectionalStars, F13), MOD(9+I10, 9)+1), MOD(9+I12-4, 9)+1)</f>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="J13" s="4">
+        <f>MATCH(C13, branch,0 )</f>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -6481,8 +7107,12 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <f>IF(H14=0, IF(G14 = 0, INDEX(DirectionalStars, F14), MOD(9+I11, 9)+1), MOD(9+I13-4, 9)+1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
+      </c>
+      <c r="J14" s="4">
+        <f>MATCH(C14, branch,0 )</f>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -6517,6 +7147,10 @@
         <f>IF(H15=0, IF(G15 = 0, INDEX(DirectionalStars, F15), MOD(9+#REF!, 9)+1), MOD(9+I14-4, 9)+1)</f>
         <v>6</v>
       </c>
+      <c r="J15" s="4">
+        <f>MATCH(C15, branch,0 )</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -6550,8 +7184,12 @@
         <f>IF(H16=0, IF(G16 = 0, INDEX(DirectionalStars, F16), MOD(9+#REF!, 9)+1), MOD(9+I15-4, 9)+1)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="4">
+        <f>MATCH(C16, branch,0 )</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -6580,11 +7218,15 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <f>IF(H17=0, IF(G17 = 0, INDEX(DirectionalStars, F17), MOD(9+I14, 9)+1), MOD(9+I16-4, 9)+1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I17:I27" si="4">IF(H17=0, IF(G17 = 0, INDEX(DirectionalStars, F17), MOD(9+I14, 9)+1), MOD(9+I16-4, 9)+1)</f>
+        <v>1</v>
+      </c>
+      <c r="J17" s="4">
+        <f>MATCH(C17, branch,0 )</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -6613,11 +7255,15 @@
         <v>1</v>
       </c>
       <c r="I18">
-        <f>IF(H18=0, IF(G18 = 0, INDEX(DirectionalStars, F18), MOD(9+I15, 9)+1), MOD(9+I17-4, 9)+1)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="4">
+        <f>MATCH(C18, branch,0 )</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -6646,11 +7292,15 @@
         <v>2</v>
       </c>
       <c r="I19">
-        <f>IF(H19=0, IF(G19 = 0, INDEX(DirectionalStars, F19), MOD(9+I16, 9)+1), MOD(9+I18-4, 9)+1)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="J19" s="4">
+        <f>MATCH(C19, branch,0 )</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -6679,11 +7329,15 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <f>IF(H20=0, IF(G20 = 0, INDEX(DirectionalStars, F20), MOD(9+I17, 9)+1), MOD(9+I19-4, 9)+1)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" s="4">
+        <f>MATCH(C20, branch,0 )</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -6712,11 +7366,15 @@
         <v>1</v>
       </c>
       <c r="I21">
-        <f>IF(H21=0, IF(G21 = 0, INDEX(DirectionalStars, F21), MOD(9+I18, 9)+1), MOD(9+I20-4, 9)+1)</f>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" s="4">
+        <f>MATCH(C21, branch,0 )</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -6745,11 +7403,15 @@
         <v>2</v>
       </c>
       <c r="I22">
-        <f>IF(H22=0, IF(G22 = 0, INDEX(DirectionalStars, F22), MOD(9+I19, 9)+1), MOD(9+I21-4, 9)+1)</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" s="4">
+        <f>MATCH(C22, branch,0 )</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -6778,11 +7440,15 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <f>IF(H23=0, IF(G23 = 0, INDEX(DirectionalStars, F23), MOD(9+I20, 9)+1), MOD(9+I22-4, 9)+1)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="J23" s="4">
+        <f>MATCH(C23, branch,0 )</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -6811,11 +7477,15 @@
         <v>1</v>
       </c>
       <c r="I24">
-        <f>IF(H24=0, IF(G24 = 0, INDEX(DirectionalStars, F24), MOD(9+I21, 9)+1), MOD(9+I23-4, 9)+1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J24" s="4">
+        <f>MATCH(C24, branch,0 )</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -6844,11 +7514,15 @@
         <v>2</v>
       </c>
       <c r="I25">
-        <f>IF(H25=0, IF(G25 = 0, INDEX(DirectionalStars, F25), MOD(9+I22, 9)+1), MOD(9+I24-4, 9)+1)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="4">
+        <f>MATCH(C25, branch,0 )</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -6877,11 +7551,15 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <f>IF(H26=0, IF(G26 = 0, INDEX(DirectionalStars, F26), MOD(9+I23, 9)+1), MOD(9+I25-4, 9)+1)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="J26" s="4">
+        <f>MATCH(C26, branch,0 )</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -6910,11 +7588,15 @@
         <v>1</v>
       </c>
       <c r="I27">
-        <f>IF(H27=0, IF(G27 = 0, INDEX(DirectionalStars, F27), MOD(9+I24, 9)+1), MOD(9+I26-4, 9)+1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="J27" s="4">
+        <f>MATCH(C27, branch,0 )</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -6946,8 +7628,12 @@
         <f>IF(H28=0, IF(G28 = 0, INDEX(DirectionalStars, F28), MOD(9+#REF!, 9)+1), MOD(9+I27-4, 9)+1)</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28" s="4">
+        <f>MATCH(C28, branch,0 )</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -6979,8 +7665,12 @@
         <f>IF(H29=0, IF(G29 = 0, INDEX(DirectionalStars, F29), MOD(9+#REF!, 9)+1), MOD(9+I28-4, 9)+1)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29" s="4">
+        <f>MATCH(C29, branch,0 )</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -7009,11 +7699,15 @@
         <v>1</v>
       </c>
       <c r="I30">
-        <f>IF(H30=0, IF(G30 = 0, INDEX(DirectionalStars, F30), MOD(9+I27, 9)+1), MOD(9+I29-4, 9)+1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I30:I37" si="5">IF(H30=0, IF(G30 = 0, INDEX(DirectionalStars, F30), MOD(9+I27, 9)+1), MOD(9+I29-4, 9)+1)</f>
+        <v>1</v>
+      </c>
+      <c r="J30" s="4">
+        <f>MATCH(C30, branch,0 )</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -7042,11 +7736,15 @@
         <v>2</v>
       </c>
       <c r="I31">
-        <f>IF(H31=0, IF(G31 = 0, INDEX(DirectionalStars, F31), MOD(9+I28, 9)+1), MOD(9+I30-4, 9)+1)</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31" s="4">
+        <f>MATCH(C31, branch,0 )</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -7075,11 +7773,15 @@
         <v>0</v>
       </c>
       <c r="I32">
-        <f>IF(H32=0, IF(G32 = 0, INDEX(DirectionalStars, F32), MOD(9+I29, 9)+1), MOD(9+I31-4, 9)+1)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="J32" s="4">
+        <f>MATCH(C32, branch,0 )</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -7108,11 +7810,15 @@
         <v>1</v>
       </c>
       <c r="I33">
-        <f>IF(H33=0, IF(G33 = 0, INDEX(DirectionalStars, F33), MOD(9+I30, 9)+1), MOD(9+I32-4, 9)+1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="J33" s="4">
+        <f>MATCH(C33, branch,0 )</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -7141,11 +7847,15 @@
         <v>2</v>
       </c>
       <c r="I34">
-        <f>IF(H34=0, IF(G34 = 0, INDEX(DirectionalStars, F34), MOD(9+I31, 9)+1), MOD(9+I33-4, 9)+1)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34" s="4">
+        <f>MATCH(C34, branch,0 )</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -7174,11 +7884,15 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <f>IF(H35=0, IF(G35 = 0, INDEX(DirectionalStars, F35), MOD(9+I32, 9)+1), MOD(9+I34-4, 9)+1)</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J35" s="4">
+        <f>MATCH(C35, branch,0 )</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -7207,11 +7921,15 @@
         <v>1</v>
       </c>
       <c r="I36">
-        <f>IF(H36=0, IF(G36 = 0, INDEX(DirectionalStars, F36), MOD(9+I33, 9)+1), MOD(9+I35-4, 9)+1)</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J36" s="4">
+        <f>MATCH(C36, branch,0 )</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -7240,11 +7958,15 @@
         <v>2</v>
       </c>
       <c r="I37">
-        <f>IF(H37=0, IF(G37 = 0, INDEX(DirectionalStars, F37), MOD(9+I34, 9)+1), MOD(9+I36-4, 9)+1)</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J37" s="4">
+        <f>MATCH(C37, branch,0 )</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -7261,11 +7983,15 @@
         <v>36</v>
       </c>
       <c r="I38">
-        <f t="shared" ref="G38:I38" si="3">I35</f>
+        <f t="shared" ref="I38" si="6">I35</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J38" s="4">
+        <f>MATCH(C38, branch,0 )</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -7282,11 +8008,15 @@
         <v>36</v>
       </c>
       <c r="I39">
-        <f t="shared" ref="F39:I39" si="4">I36</f>
+        <f t="shared" ref="I39" si="7">I36</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J39" s="4">
+        <f>MATCH(C39, branch,0 )</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -7303,11 +8033,15 @@
         <v>38</v>
       </c>
       <c r="I40">
-        <f t="shared" ref="F40:I40" si="5">I37</f>
+        <f t="shared" ref="I40" si="8">I37</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J40" s="4">
+        <f>MATCH(C40, branch,0 )</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -7339,8 +8073,12 @@
         <f>IF(H41=0, IF(G41 = 0, -INDEX(DirectionalStars, F41), MOD(I35+2, -9)-1), -MOD(-I37+2, 9)-1)</f>
         <v>-9</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J41" s="4">
+        <f>MATCH(C41, branch,0 )</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -7357,23 +8095,27 @@
         <v>38</v>
       </c>
       <c r="F42">
-        <f t="shared" ref="F42:F76" si="6">FLOOR( (ROW()-5)/9, 1)+1</f>
+        <f t="shared" ref="F42:F76" si="9">FLOOR( (ROW()-5)/9, 1)+1</f>
         <v>5</v>
       </c>
       <c r="G42">
-        <f t="shared" ref="G42:G76" si="7">MOD(ROW()-5, 9)</f>
+        <f t="shared" ref="G42:G76" si="10">MOD(ROW()-5, 9)</f>
         <v>1</v>
       </c>
       <c r="H42">
-        <f t="shared" ref="H42:H76" si="8">MOD(ROW()-5, 3)</f>
+        <f t="shared" ref="H42:H76" si="11">MOD(ROW()-5, 3)</f>
         <v>1</v>
       </c>
       <c r="I42">
         <f>IF(H42=0, IF(G42 = 0, -INDEX(DirectionalStars, F42), MOD(I36+2, -9)-1), -MOD(-I41+2, 9)-1)</f>
         <v>-3</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J42" s="4">
+        <f>MATCH(C42, branch,0 )</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -7390,23 +8132,27 @@
         <v>42</v>
       </c>
       <c r="F43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="G43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="H43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="I43">
         <f>IF(H43=0, IF(G43 = 0, -INDEX(DirectionalStars, F43), MOD(I37+2, -9)-1), -MOD(-I42+2, 9)-1)</f>
         <v>-6</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J43" s="4">
+        <f>MATCH(C43, branch,0 )</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -7423,23 +8169,27 @@
         <v>42</v>
       </c>
       <c r="F44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="G44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="H44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I44">
-        <f>IF(H44=0, IF(G44 = 0, -INDEX(DirectionalStars, F44), MOD(I41+2, -9)-1), -MOD(-I43+2, 9)-1)</f>
+        <f t="shared" ref="I44:I76" si="12">IF(H44=0, IF(G44 = 0, -INDEX(DirectionalStars, F44), MOD(I41+2, -9)-1), -MOD(-I43+2, 9)-1)</f>
         <v>-8</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J44" s="4">
+        <f>MATCH(C44, branch,0 )</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -7456,23 +8206,27 @@
         <v>42</v>
       </c>
       <c r="F45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="G45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="H45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="I45">
-        <f>IF(H45=0, IF(G45 = 0, -INDEX(DirectionalStars, F45), MOD(I42+2, -9)-1), -MOD(-I44+2, 9)-1)</f>
+        <f t="shared" si="12"/>
         <v>-2</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J45" s="4">
+        <f>MATCH(C45, branch,0 )</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -7489,23 +8243,27 @@
         <v>44</v>
       </c>
       <c r="F46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="G46">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="H46">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="I46">
-        <f>IF(H46=0, IF(G46 = 0, -INDEX(DirectionalStars, F46), MOD(I43+2, -9)-1), -MOD(-I45+2, 9)-1)</f>
+        <f t="shared" si="12"/>
         <v>-5</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J46" s="4">
+        <f>MATCH(C46, branch,0 )</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -7522,23 +8280,27 @@
         <v>44</v>
       </c>
       <c r="F47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="G47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="H47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I47">
-        <f>IF(H47=0, IF(G47 = 0, -INDEX(DirectionalStars, F47), MOD(I44+2, -9)-1), -MOD(-I46+2, 9)-1)</f>
+        <f t="shared" si="12"/>
         <v>-7</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J47" s="4">
+        <f>MATCH(C47, branch,0 )</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -7555,23 +8317,27 @@
         <v>44</v>
       </c>
       <c r="F48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="G48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="H48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="I48">
-        <f>IF(H48=0, IF(G48 = 0, -INDEX(DirectionalStars, F48), MOD(I45+2, -9)-1), -MOD(-I47+2, 9)-1)</f>
+        <f t="shared" si="12"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J48" s="4">
+        <f>MATCH(C48, branch,0 )</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -7588,23 +8354,27 @@
         <v>44</v>
       </c>
       <c r="F49">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="G49">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="H49">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="I49">
-        <f>IF(H49=0, IF(G49 = 0, -INDEX(DirectionalStars, F49), MOD(I46+2, -9)-1), -MOD(-I48+2, 9)-1)</f>
+        <f t="shared" si="12"/>
         <v>-4</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J49" s="4">
+        <f>MATCH(C49, branch,0 )</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -7621,23 +8391,27 @@
         <v>48</v>
       </c>
       <c r="F50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="G50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I50">
-        <f>IF(H50=0, IF(G50 = 0, -INDEX(DirectionalStars, F50), MOD(I47+2, -9)-1), -MOD(-I49+2, 9)-1)</f>
+        <f t="shared" si="12"/>
         <v>-2</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J50" s="4">
+        <f>MATCH(C50, branch,0 )</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -7654,23 +8428,27 @@
         <v>48</v>
       </c>
       <c r="F51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="G51">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="I51">
-        <f>IF(H51=0, IF(G51 = 0, -INDEX(DirectionalStars, F51), MOD(I48+2, -9)-1), -MOD(-I50+2, 9)-1)</f>
+        <f t="shared" si="12"/>
         <v>-5</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J51" s="4">
+        <f>MATCH(C51, branch,0 )</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -7687,23 +8465,27 @@
         <v>48</v>
       </c>
       <c r="F52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="G52">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="H52">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="I52">
-        <f>IF(H52=0, IF(G52 = 0, -INDEX(DirectionalStars, F52), MOD(I49+2, -9)-1), -MOD(-I51+2, 9)-1)</f>
+        <f t="shared" si="12"/>
         <v>-8</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J52" s="4">
+        <f>MATCH(C52, branch,0 )</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -7720,23 +8502,27 @@
         <v>50</v>
       </c>
       <c r="F53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="G53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="H53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I53">
-        <f>IF(H53=0, IF(G53 = 0, -INDEX(DirectionalStars, F53), MOD(I50+2, -9)-1), -MOD(-I52+2, 9)-1)</f>
+        <f t="shared" si="12"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J53" s="4">
+        <f>MATCH(C53, branch,0 )</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -7753,23 +8539,27 @@
         <v>50</v>
       </c>
       <c r="F54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="G54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="H54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="I54">
-        <f>IF(H54=0, IF(G54 = 0, -INDEX(DirectionalStars, F54), MOD(I51+2, -9)-1), -MOD(-I53+2, 9)-1)</f>
+        <f t="shared" si="12"/>
         <v>-4</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J54" s="4">
+        <f>MATCH(C54, branch,0 )</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -7786,23 +8576,27 @@
         <v>50</v>
       </c>
       <c r="F55">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="G55">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="H55">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="I55">
-        <f>IF(H55=0, IF(G55 = 0, -INDEX(DirectionalStars, F55), MOD(I52+2, -9)-1), -MOD(-I54+2, 9)-1)</f>
+        <f t="shared" si="12"/>
         <v>-7</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J55" s="4">
+        <f>MATCH(C55, branch,0 )</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -7819,23 +8613,27 @@
         <v>54</v>
       </c>
       <c r="F56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="G56">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="H56">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I56">
-        <f>IF(H56=0, IF(G56 = 0, -INDEX(DirectionalStars, F56), MOD(I53+2, -9)-1), -MOD(-I55+2, 9)-1)</f>
+        <f t="shared" si="12"/>
         <v>-9</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J56" s="4">
+        <f>MATCH(C56, branch,0 )</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -7852,23 +8650,27 @@
         <v>54</v>
       </c>
       <c r="F57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="G57">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="H57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="I57">
-        <f>IF(H57=0, IF(G57 = 0, -INDEX(DirectionalStars, F57), MOD(I54+2, -9)-1), -MOD(-I56+2, 9)-1)</f>
+        <f t="shared" si="12"/>
         <v>-3</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J57" s="4">
+        <f>MATCH(C57, branch,0 )</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -7885,23 +8687,27 @@
         <v>54</v>
       </c>
       <c r="F58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="G58">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="H58">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="I58">
-        <f>IF(H58=0, IF(G58 = 0, -INDEX(DirectionalStars, F58), MOD(I55+2, -9)-1), -MOD(-I57+2, 9)-1)</f>
+        <f t="shared" si="12"/>
         <v>-6</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J58" s="4">
+        <f>MATCH(C58, branch,0 )</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -7918,23 +8724,27 @@
         <v>56</v>
       </c>
       <c r="F59">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="G59">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H59">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I59">
-        <f>IF(H59=0, IF(G59 = 0, -INDEX(DirectionalStars, F59), MOD(I56+2, -9)-1), -MOD(-I58+2, 9)-1)</f>
+        <f t="shared" si="12"/>
         <v>-7</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J59" s="4">
+        <f>MATCH(C59, branch,0 )</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -7951,23 +8761,27 @@
         <v>56</v>
       </c>
       <c r="F60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="G60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H60">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="I60">
-        <f>IF(H60=0, IF(G60 = 0, -INDEX(DirectionalStars, F60), MOD(I57+2, -9)-1), -MOD(-I59+2, 9)-1)</f>
+        <f t="shared" si="12"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J60" s="4">
+        <f>MATCH(C60, branch,0 )</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -7984,23 +8798,27 @@
         <v>56</v>
       </c>
       <c r="F61">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="G61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="H61">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="I61">
-        <f>IF(H61=0, IF(G61 = 0, -INDEX(DirectionalStars, F61), MOD(I58+2, -9)-1), -MOD(-I60+2, 9)-1)</f>
+        <f t="shared" si="12"/>
         <v>-4</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J61" s="4">
+        <f>MATCH(C61, branch,0 )</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -8017,23 +8835,27 @@
         <v>60</v>
       </c>
       <c r="F62">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="G62">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="H62">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I62">
-        <f>IF(H62=0, IF(G62 = 0, -INDEX(DirectionalStars, F62), MOD(I59+2, -9)-1), -MOD(-I61+2, 9)-1)</f>
+        <f t="shared" si="12"/>
         <v>-6</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J62" s="4">
+        <f>MATCH(C62, branch,0 )</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -8050,23 +8872,27 @@
         <v>60</v>
       </c>
       <c r="F63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="G63">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="H63">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="I63">
-        <f>IF(H63=0, IF(G63 = 0, -INDEX(DirectionalStars, F63), MOD(I60+2, -9)-1), -MOD(-I62+2, 9)-1)</f>
+        <f t="shared" si="12"/>
         <v>-9</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J63" s="4">
+        <f>MATCH(C63, branch,0 )</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -8083,23 +8909,27 @@
         <v>60</v>
       </c>
       <c r="F64">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="G64">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="H64">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="I64">
-        <f>IF(H64=0, IF(G64 = 0, -INDEX(DirectionalStars, F64), MOD(I61+2, -9)-1), -MOD(-I63+2, 9)-1)</f>
+        <f t="shared" si="12"/>
         <v>-3</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J64" s="4">
+        <f>MATCH(C64, branch,0 )</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -8116,23 +8946,27 @@
         <v>62</v>
       </c>
       <c r="F65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="G65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="H65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I65">
-        <f>IF(H65=0, IF(G65 = 0, -INDEX(DirectionalStars, F65), MOD(I62+2, -9)-1), -MOD(-I64+2, 9)-1)</f>
+        <f t="shared" si="12"/>
         <v>-5</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J65" s="4">
+        <f>MATCH(C65, branch,0 )</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -8149,23 +8983,27 @@
         <v>62</v>
       </c>
       <c r="F66">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="G66">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="H66">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="I66">
-        <f>IF(H66=0, IF(G66 = 0, -INDEX(DirectionalStars, F66), MOD(I63+2, -9)-1), -MOD(-I65+2, 9)-1)</f>
+        <f t="shared" si="12"/>
         <v>-8</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J66" s="4">
+        <f>MATCH(C66, branch,0 )</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -8182,23 +9020,27 @@
         <v>62</v>
       </c>
       <c r="F67">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="G67">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="H67">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="I67">
-        <f>IF(H67=0, IF(G67 = 0, -INDEX(DirectionalStars, F67), MOD(I64+2, -9)-1), -MOD(-I66+2, 9)-1)</f>
+        <f t="shared" si="12"/>
         <v>-2</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J67" s="4">
+        <f>MATCH(C67, branch,0 )</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -8215,23 +9057,27 @@
         <v>66</v>
       </c>
       <c r="F68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="G68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I68">
-        <f>IF(H68=0, IF(G68 = 0, -INDEX(DirectionalStars, F68), MOD(I65+2, -9)-1), -MOD(-I67+2, 9)-1)</f>
+        <f t="shared" si="12"/>
         <v>-6</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J68" s="4">
+        <f>MATCH(C68, branch,0 )</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -8248,23 +9094,27 @@
         <v>66</v>
       </c>
       <c r="F69">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="G69">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H69">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="I69">
-        <f>IF(H69=0, IF(G69 = 0, -INDEX(DirectionalStars, F69), MOD(I66+2, -9)-1), -MOD(-I68+2, 9)-1)</f>
+        <f t="shared" si="12"/>
         <v>-9</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J69" s="4">
+        <f>MATCH(C69, branch,0 )</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -8281,23 +9131,27 @@
         <v>66</v>
       </c>
       <c r="F70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="G70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="H70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="I70">
-        <f>IF(H70=0, IF(G70 = 0, -INDEX(DirectionalStars, F70), MOD(I67+2, -9)-1), -MOD(-I69+2, 9)-1)</f>
+        <f t="shared" si="12"/>
         <v>-3</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J70" s="4">
+        <f>MATCH(C70, branch,0 )</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -8314,23 +9168,27 @@
         <v>68</v>
       </c>
       <c r="F71">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="G71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="H71">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I71">
-        <f>IF(H71=0, IF(G71 = 0, -INDEX(DirectionalStars, F71), MOD(I68+2, -9)-1), -MOD(-I70+2, 9)-1)</f>
+        <f t="shared" si="12"/>
         <v>-5</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J71" s="4">
+        <f>MATCH(C71, branch,0 )</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -8347,23 +9205,27 @@
         <v>68</v>
       </c>
       <c r="F72">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="G72">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="H72">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="I72">
-        <f>IF(H72=0, IF(G72 = 0, -INDEX(DirectionalStars, F72), MOD(I69+2, -9)-1), -MOD(-I71+2, 9)-1)</f>
+        <f t="shared" si="12"/>
         <v>-8</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J72" s="4">
+        <f>MATCH(C72, branch,0 )</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -8380,23 +9242,27 @@
         <v>68</v>
       </c>
       <c r="F73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="G73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="H73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="I73">
-        <f>IF(H73=0, IF(G73 = 0, -INDEX(DirectionalStars, F73), MOD(I70+2, -9)-1), -MOD(-I72+2, 9)-1)</f>
+        <f t="shared" si="12"/>
         <v>-2</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J73" s="4">
+        <f>MATCH(C73, branch,0 )</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -8413,23 +9279,27 @@
         <v>70</v>
       </c>
       <c r="F74">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="G74">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="H74">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I74">
-        <f>IF(H74=0, IF(G74 = 0, -INDEX(DirectionalStars, F74), MOD(I71+2, -9)-1), -MOD(-I73+2, 9)-1)</f>
+        <f t="shared" si="12"/>
         <v>-4</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J74" s="4">
+        <f>MATCH(C74, branch,0 )</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -8446,23 +9316,27 @@
         <v>70</v>
       </c>
       <c r="F75">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="G75">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="H75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="I75">
-        <f>IF(H75=0, IF(G75 = 0, -INDEX(DirectionalStars, F75), MOD(I72+2, -9)-1), -MOD(-I74+2, 9)-1)</f>
+        <f t="shared" si="12"/>
         <v>-7</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J75" s="4">
+        <f>MATCH(C75, branch,0 )</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -8479,59 +9353,63 @@
         <v>70</v>
       </c>
       <c r="F76">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="G76">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="H76">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="I76">
-        <f>IF(H76=0, IF(G76 = 0, -INDEX(DirectionalStars, F76), MOD(I73+2, -9)-1), -MOD(-I75+2, 9)-1)</f>
+        <f t="shared" si="12"/>
         <v>-1</v>
+      </c>
+      <c r="J76" s="4">
+        <f>MATCH(C76, branch,0 )</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="B75:E76 I75:I76">
-    <cfRule type="expression" dxfId="14" priority="11">
+  <conditionalFormatting sqref="A3:E40">
+    <cfRule type="expression" dxfId="8" priority="1">
+      <formula>MOD(ROW()-1, 9)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="2">
+      <formula>MOD(ROW()-1, 3)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A41:E76">
+    <cfRule type="expression" dxfId="6" priority="3">
       <formula>MOD(ROW()-1, 9)=0</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I41:I76 A59:E76 A41:E48 A49:A58 B50:E58">
-    <cfRule type="expression" dxfId="13" priority="5">
-      <formula>MOD(ROW()-1, 9)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="7">
+    <cfRule type="expression" dxfId="5" priority="4">
       <formula>MOD(ROW()-1, 3)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:I2 I3:I40 F3:H76 A3:E33 A37:E40 A34:C36 E34:E36">
-    <cfRule type="expression" dxfId="9" priority="6">
+  <conditionalFormatting sqref="A2:I2 I3:I40 F3:H76">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>MOD(ROW()-1, 9)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="8">
+    <cfRule type="expression" dxfId="3" priority="8">
       <formula>MOD(ROW()-1, 3)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B49:E49">
-    <cfRule type="expression" dxfId="11" priority="3">
+  <conditionalFormatting sqref="I41:I76">
+    <cfRule type="expression" dxfId="2" priority="5">
       <formula>MOD(ROW()-1, 9)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="4">
+    <cfRule type="expression" dxfId="1" priority="7">
       <formula>MOD(ROW()-1, 3)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34:D36">
-    <cfRule type="expression" dxfId="5" priority="1">
-      <formula>MOD(ROW()-1, 9)=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2">
-      <formula>MOD(ROW()-1, 3)=1</formula>
+  <conditionalFormatting sqref="I75:I76 B75:E76">
+    <cfRule type="expression" dxfId="0" priority="11">
+      <formula>MOD(ROW()-1, 9)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/置潤曆.xlsx
+++ b/置潤曆.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\GoogleDriveHoy\qimen-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5316660B-396C-46BB-806D-8537FD020246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51CFEB51-5507-4427-8BED-D08C3DE79848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="330" windowWidth="25440" windowHeight="15540" xr2:uid="{902489F8-786F-4753-A778-68C63BFDF0EE}"/>
+    <workbookView xWindow="32550" yWindow="3135" windowWidth="21600" windowHeight="11505" activeTab="2" xr2:uid="{902489F8-786F-4753-A778-68C63BFDF0EE}"/>
   </bookViews>
   <sheets>
     <sheet name="不置閏" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="branch">def!$B$1:$B$12</definedName>
     <definedName name="DirectionalStars">def!$C$1:$C$8</definedName>
-    <definedName name="header">不置閏!$A$1:$J$1</definedName>
+    <definedName name="header">不置閏!$A$1:$I$1</definedName>
     <definedName name="stem">def!$A$1:$A$10</definedName>
     <definedName name="yang_structure" localSheetId="1">冬置閏!$I$5:$I$43</definedName>
     <definedName name="yang_structure" localSheetId="2">夏置閏!$I$2:$I$43</definedName>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="91">
   <si>
     <t>十一月</t>
   </si>
@@ -303,29 +303,23 @@
     <t>癸</t>
   </si>
   <si>
-    <t>月
-row/9</t>
-  </si>
-  <si>
-    <t>元
-mod(row,9)</t>
-  </si>
-  <si>
-    <t>節氣
-mod(row, 3)</t>
-  </si>
-  <si>
     <t>小滿</t>
   </si>
   <si>
-    <t>lunar month index</t>
+    <t>元</t>
+  </si>
+  <si>
+    <t>三氣</t>
+  </si>
+  <si>
+    <t>節</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -340,27 +334,27 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -407,17 +401,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -433,11 +416,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -996,11 +977,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55B991D3-8E91-450A-976D-3CEEE520ADD5}">
-  <dimension ref="A1:J73"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1015,7 +996,7 @@
     <col min="9" max="9" width="2.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>71</v>
       </c>
@@ -1032,22 +1013,19 @@
         <v>75</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1079,12 +1057,8 @@
         <f>IF(H2=0, IF(G2 = 0, INDEX(DirectionalStars, F2), MOD(9+#REF!, 9)+1), MOD(9+I1-4, 9)+1)</f>
         <v>1</v>
       </c>
-      <c r="J2" s="4">
-        <f>MATCH(C2, branch,0 )</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1116,12 +1090,8 @@
         <f>IF(H3=0, IF(G3 = 0, INDEX(DirectionalStars, F3), MOD(9+#REF!, 9)+1), MOD(9+I2-4, 9)+1)</f>
         <v>7</v>
       </c>
-      <c r="J3" s="4">
-        <f>MATCH(C3, branch,0 )</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1153,12 +1123,8 @@
         <f t="shared" ref="I4:I14" si="3">IF(H4=0, IF(G4 = 0, INDEX(DirectionalStars, F4), MOD(9+I1, 9)+1), MOD(9+I3-4, 9)+1)</f>
         <v>4</v>
       </c>
-      <c r="J4" s="4">
-        <f>MATCH(C4, branch,0 )</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1190,12 +1156,8 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="J5" s="4">
-        <f>MATCH(C5, branch,0 )</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1227,12 +1189,8 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="J6" s="4">
-        <f>MATCH(C6, branch,0 )</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1264,12 +1222,8 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="J7" s="4">
-        <f>MATCH(C7, branch,0 )</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1301,12 +1255,8 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="J8" s="4">
-        <f>MATCH(C8, branch,0 )</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1338,12 +1288,8 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="J9" s="4">
-        <f>MATCH(C9, branch,0 )</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1375,12 +1321,8 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="J10" s="4">
-        <f>MATCH(C10, branch,0 )</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1412,12 +1354,8 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="J11" s="4">
-        <f>MATCH(C11, branch,0 )</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1449,12 +1387,8 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="J12" s="4">
-        <f>MATCH(C12, branch,0 )</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1486,12 +1420,8 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="J13" s="4">
-        <f>MATCH(C13, branch,0 )</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1523,12 +1453,8 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="J14" s="4">
-        <f>MATCH(C14, branch,0 )</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1560,12 +1486,8 @@
         <f>IF(H15=0, IF(G15 = 0, INDEX(DirectionalStars, F15), MOD(9+#REF!, 9)+1), MOD(9+I14-4, 9)+1)</f>
         <v>6</v>
       </c>
-      <c r="J15" s="4">
-        <f>MATCH(C15, branch,0 )</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1597,12 +1519,8 @@
         <f>IF(H16=0, IF(G16 = 0, INDEX(DirectionalStars, F16), MOD(9+#REF!, 9)+1), MOD(9+I15-4, 9)+1)</f>
         <v>3</v>
       </c>
-      <c r="J16" s="4">
-        <f>MATCH(C16, branch,0 )</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1634,12 +1552,8 @@
         <f t="shared" ref="I17:I27" si="4">IF(H17=0, IF(G17 = 0, INDEX(DirectionalStars, F17), MOD(9+I14, 9)+1), MOD(9+I16-4, 9)+1)</f>
         <v>1</v>
       </c>
-      <c r="J17" s="4">
-        <f>MATCH(C17, branch,0 )</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1671,12 +1585,8 @@
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="J18" s="4">
-        <f>MATCH(C18, branch,0 )</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1708,12 +1618,8 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="J19" s="4">
-        <f>MATCH(C19, branch,0 )</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1745,12 +1651,8 @@
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="J20" s="4">
-        <f>MATCH(C20, branch,0 )</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1782,12 +1684,8 @@
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="J21" s="4">
-        <f>MATCH(C21, branch,0 )</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1819,12 +1717,8 @@
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="J22" s="4">
-        <f>MATCH(C22, branch,0 )</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1856,12 +1750,8 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="J23" s="4">
-        <f>MATCH(C23, branch,0 )</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1893,12 +1783,8 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="J24" s="4">
-        <f>MATCH(C24, branch,0 )</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1930,12 +1816,8 @@
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="J25" s="4">
-        <f>MATCH(C25, branch,0 )</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1967,12 +1849,8 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="J26" s="4">
-        <f>MATCH(C26, branch,0 )</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2004,12 +1882,8 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="J27" s="4">
-        <f>MATCH(C27, branch,0 )</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2041,12 +1915,8 @@
         <f>IF(H28=0, IF(G28 = 0, INDEX(DirectionalStars, F28), MOD(9+#REF!, 9)+1), MOD(9+I27-4, 9)+1)</f>
         <v>8</v>
       </c>
-      <c r="J28" s="4">
-        <f>MATCH(C28, branch,0 )</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2078,12 +1948,8 @@
         <f>IF(H29=0, IF(G29 = 0, INDEX(DirectionalStars, F29), MOD(9+#REF!, 9)+1), MOD(9+I28-4, 9)+1)</f>
         <v>4</v>
       </c>
-      <c r="J29" s="4">
-        <f>MATCH(C29, branch,0 )</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2115,12 +1981,8 @@
         <f t="shared" ref="I30:I37" si="5">IF(H30=0, IF(G30 = 0, INDEX(DirectionalStars, F30), MOD(9+I27, 9)+1), MOD(9+I29-4, 9)+1)</f>
         <v>1</v>
       </c>
-      <c r="J30" s="4">
-        <f>MATCH(C30, branch,0 )</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2152,12 +2014,8 @@
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="J31" s="4">
-        <f>MATCH(C31, branch,0 )</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2168,7 +2026,7 @@
         <v>29</v>
       </c>
       <c r="D32" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E32" t="s">
         <v>32</v>
@@ -2189,12 +2047,8 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="J32" s="4">
-        <f>MATCH(C32, branch,0 )</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2205,7 +2059,7 @@
         <v>29</v>
       </c>
       <c r="D33" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E33" t="s">
         <v>32</v>
@@ -2226,12 +2080,8 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="J33" s="4">
-        <f>MATCH(C33, branch,0 )</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2242,7 +2092,7 @@
         <v>29</v>
       </c>
       <c r="D34" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E34" t="s">
         <v>32</v>
@@ -2263,12 +2113,8 @@
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="J34" s="4">
-        <f>MATCH(C34, branch,0 )</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2300,12 +2146,8 @@
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="J35" s="4">
-        <f>MATCH(C35, branch,0 )</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2337,12 +2179,8 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="J36" s="4">
-        <f>MATCH(C36, branch,0 )</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2374,25 +2212,21 @@
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="J37" s="4">
-        <f>MATCH(C37, branch,0 )</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="5">
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
         <v>37</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E38" s="4" t="s">
         <v>38</v>
       </c>
       <c r="F38">
@@ -2411,12 +2245,8 @@
         <f t="shared" ref="I38:I73" si="6">IF(H38=0, IF(G38 = 0, -INDEX(DirectionalStars, F38), MOD(I35+2, -9)-1), -MOD(-I37+2, 9)-1)</f>
         <v>-9</v>
       </c>
-      <c r="J38" s="4">
-        <f>MATCH(C38, branch,0 )</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2448,12 +2278,8 @@
         <f t="shared" si="6"/>
         <v>-3</v>
       </c>
-      <c r="J39" s="4">
-        <f>MATCH(C39, branch,0 )</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2485,25 +2311,21 @@
         <f t="shared" si="6"/>
         <v>-6</v>
       </c>
-      <c r="J40" s="4">
-        <f>MATCH(C40, branch,0 )</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="5">
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
         <v>40</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="E41" s="4" t="s">
         <v>42</v>
       </c>
       <c r="F41">
@@ -2522,12 +2344,8 @@
         <f t="shared" si="6"/>
         <v>-8</v>
       </c>
-      <c r="J41" s="4">
-        <f>MATCH(C41, branch,0 )</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2559,12 +2377,8 @@
         <f t="shared" si="6"/>
         <v>-2</v>
       </c>
-      <c r="J42" s="4">
-        <f>MATCH(C42, branch,0 )</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2596,12 +2410,8 @@
         <f t="shared" si="6"/>
         <v>-5</v>
       </c>
-      <c r="J43" s="4">
-        <f>MATCH(C43, branch,0 )</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2633,12 +2443,8 @@
         <f t="shared" si="6"/>
         <v>-7</v>
       </c>
-      <c r="J44" s="4">
-        <f>MATCH(C44, branch,0 )</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2670,12 +2476,8 @@
         <f t="shared" si="6"/>
         <v>-1</v>
       </c>
-      <c r="J45" s="4">
-        <f>MATCH(C45, branch,0 )</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2707,12 +2509,8 @@
         <f t="shared" si="6"/>
         <v>-4</v>
       </c>
-      <c r="J46" s="4">
-        <f>MATCH(C46, branch,0 )</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2744,12 +2542,8 @@
         <f t="shared" si="6"/>
         <v>-2</v>
       </c>
-      <c r="J47" s="4">
-        <f>MATCH(C47, branch,0 )</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2781,12 +2575,8 @@
         <f t="shared" si="6"/>
         <v>-5</v>
       </c>
-      <c r="J48" s="4">
-        <f>MATCH(C48, branch,0 )</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2818,12 +2608,8 @@
         <f t="shared" si="6"/>
         <v>-8</v>
       </c>
-      <c r="J49" s="4">
-        <f>MATCH(C49, branch,0 )</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2855,12 +2641,8 @@
         <f t="shared" si="6"/>
         <v>-1</v>
       </c>
-      <c r="J50" s="4">
-        <f>MATCH(C50, branch,0 )</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2892,12 +2674,8 @@
         <f t="shared" si="6"/>
         <v>-4</v>
       </c>
-      <c r="J51" s="4">
-        <f>MATCH(C51, branch,0 )</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2929,12 +2707,8 @@
         <f t="shared" si="6"/>
         <v>-7</v>
       </c>
-      <c r="J52" s="4">
-        <f>MATCH(C52, branch,0 )</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2966,12 +2740,8 @@
         <f t="shared" si="6"/>
         <v>-9</v>
       </c>
-      <c r="J53" s="4">
-        <f>MATCH(C53, branch,0 )</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3003,12 +2773,8 @@
         <f t="shared" si="6"/>
         <v>-3</v>
       </c>
-      <c r="J54" s="4">
-        <f>MATCH(C54, branch,0 )</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3040,12 +2806,8 @@
         <f t="shared" si="6"/>
         <v>-6</v>
       </c>
-      <c r="J55" s="4">
-        <f>MATCH(C55, branch,0 )</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3077,12 +2839,8 @@
         <f t="shared" si="6"/>
         <v>-7</v>
       </c>
-      <c r="J56" s="4">
-        <f>MATCH(C56, branch,0 )</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3114,12 +2872,8 @@
         <f t="shared" si="6"/>
         <v>-1</v>
       </c>
-      <c r="J57" s="4">
-        <f>MATCH(C57, branch,0 )</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3151,12 +2905,8 @@
         <f t="shared" si="6"/>
         <v>-4</v>
       </c>
-      <c r="J58" s="4">
-        <f>MATCH(C58, branch,0 )</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3188,12 +2938,8 @@
         <f t="shared" si="6"/>
         <v>-6</v>
       </c>
-      <c r="J59" s="4">
-        <f>MATCH(C59, branch,0 )</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3225,12 +2971,8 @@
         <f t="shared" si="6"/>
         <v>-9</v>
       </c>
-      <c r="J60" s="4">
-        <f>MATCH(C60, branch,0 )</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3262,12 +3004,8 @@
         <f t="shared" si="6"/>
         <v>-3</v>
       </c>
-      <c r="J61" s="4">
-        <f>MATCH(C61, branch,0 )</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3299,12 +3037,8 @@
         <f t="shared" si="6"/>
         <v>-5</v>
       </c>
-      <c r="J62" s="4">
-        <f>MATCH(C62, branch,0 )</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3336,12 +3070,8 @@
         <f t="shared" si="6"/>
         <v>-8</v>
       </c>
-      <c r="J63" s="4">
-        <f>MATCH(C63, branch,0 )</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3373,12 +3103,8 @@
         <f t="shared" si="6"/>
         <v>-2</v>
       </c>
-      <c r="J64" s="4">
-        <f>MATCH(C64, branch,0 )</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3410,12 +3136,8 @@
         <f t="shared" si="6"/>
         <v>-6</v>
       </c>
-      <c r="J65" s="4">
-        <f>MATCH(C65, branch,0 )</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3447,12 +3169,8 @@
         <f t="shared" si="6"/>
         <v>-9</v>
       </c>
-      <c r="J66" s="4">
-        <f>MATCH(C66, branch,0 )</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3484,12 +3202,8 @@
         <f t="shared" si="6"/>
         <v>-3</v>
       </c>
-      <c r="J67" s="4">
-        <f>MATCH(C67, branch,0 )</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3521,12 +3235,8 @@
         <f t="shared" si="6"/>
         <v>-5</v>
       </c>
-      <c r="J68" s="4">
-        <f>MATCH(C68, branch,0 )</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3558,12 +3268,8 @@
         <f t="shared" si="6"/>
         <v>-8</v>
       </c>
-      <c r="J69" s="4">
-        <f>MATCH(C69, branch,0 )</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3595,12 +3301,8 @@
         <f t="shared" si="6"/>
         <v>-2</v>
       </c>
-      <c r="J70" s="4">
-        <f>MATCH(C70, branch,0 )</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3632,12 +3334,8 @@
         <f t="shared" si="6"/>
         <v>-4</v>
       </c>
-      <c r="J71" s="4">
-        <f>MATCH(C71, branch,0 )</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3669,12 +3367,8 @@
         <f t="shared" si="6"/>
         <v>-7</v>
       </c>
-      <c r="J72" s="4">
-        <f>MATCH(C72, branch,0 )</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3705,10 +3399,6 @@
       <c r="I73">
         <f t="shared" si="6"/>
         <v>-1</v>
-      </c>
-      <c r="J73" s="4">
-        <f>MATCH(C73, branch,0 )</f>
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3734,11 +3424,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCEDB5A3-33B0-4F8D-AC0A-0781D1C11901}">
-  <dimension ref="A1:J76"/>
+  <dimension ref="A1:I76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3751,130 +3441,146 @@
     <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="str">
-        <f>header</f>
+        <f t="shared" ref="A1:I1" si="0">header</f>
         <v>序</v>
       </c>
       <c r="B1" s="2" t="str">
-        <f>header</f>
+        <f t="shared" si="0"/>
         <v>農月</v>
       </c>
       <c r="C1" s="2" t="str">
-        <f>header</f>
+        <f t="shared" si="0"/>
         <v>支</v>
       </c>
       <c r="D1" s="2" t="str">
-        <f>header</f>
+        <f t="shared" si="0"/>
         <v>節氣</v>
       </c>
       <c r="E1" s="2" t="str">
-        <f>header</f>
+        <f t="shared" si="0"/>
         <v>西月</v>
       </c>
       <c r="F1" s="2" t="str">
-        <f>header</f>
-        <v>月
-row/9</v>
+        <f t="shared" si="0"/>
+        <v>節</v>
       </c>
       <c r="G1" s="2" t="str">
-        <f>header</f>
-        <v>元
-mod(row,9)</v>
+        <f t="shared" si="0"/>
+        <v>三氣</v>
       </c>
       <c r="H1" s="2" t="str">
-        <f>header</f>
-        <v>節氣
-mod(row, 3)</v>
+        <f t="shared" si="0"/>
+        <v>元</v>
       </c>
       <c r="I1" s="2" t="str">
-        <f>header</f>
+        <f t="shared" si="0"/>
         <v>局</v>
       </c>
-      <c r="J1" s="2" t="str">
-        <f>header</f>
-        <v>lunar month index</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="I2">
+      <c r="F2" s="5">
+        <f t="shared" ref="F2:H2" si="1">F74</f>
+        <v>8</v>
+      </c>
+      <c r="G2" s="5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="H2" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I2" s="5">
         <f>I74</f>
         <v>-4</v>
       </c>
-      <c r="J2">
-        <f>MATCH(C2, branch,0 )</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="I3">
-        <f>I75</f>
+      <c r="F3" s="5">
+        <f t="shared" ref="F3:I3" si="2">F75</f>
+        <v>8</v>
+      </c>
+      <c r="G3" s="5">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="H3" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I3" s="5">
+        <f t="shared" si="2"/>
         <v>-7</v>
       </c>
-      <c r="J3">
-        <f>MATCH(C3, branch,0 )</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="I4">
-        <f>I76</f>
+      <c r="F4" s="5">
+        <f t="shared" ref="F4:I4" si="3">F76</f>
+        <v>8</v>
+      </c>
+      <c r="G4" s="5">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="H4" s="5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="I4" s="5">
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="J4">
-        <f>MATCH(C4, branch,0 )</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3906,12 +3612,8 @@
         <f>IF(H5=0, IF(G5 = 0, INDEX(DirectionalStars, F5), MOD(9+#REF!, 9)+1), MOD(9+I1-4, 9)+1)</f>
         <v>1</v>
       </c>
-      <c r="J5">
-        <f>MATCH(C5, branch,0 )</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3928,27 +3630,23 @@
         <v>3</v>
       </c>
       <c r="F6">
-        <f t="shared" ref="F6:F69" si="0">FLOOR( (ROW()-5)/9, 1)+1</f>
+        <f t="shared" ref="F6:F69" si="4">FLOOR( (ROW()-5)/9, 1)+1</f>
         <v>1</v>
       </c>
       <c r="G6">
-        <f t="shared" ref="G6:G69" si="1">MOD(ROW()-5, 9)</f>
+        <f t="shared" ref="G6:G69" si="5">MOD(ROW()-5, 9)</f>
         <v>1</v>
       </c>
       <c r="H6">
-        <f t="shared" ref="H6:H69" si="2">MOD(ROW()-5, 3)</f>
+        <f t="shared" ref="H6:H69" si="6">MOD(ROW()-5, 3)</f>
         <v>1</v>
       </c>
       <c r="I6">
         <f>IF(H6=0, IF(G6 = 0, INDEX(DirectionalStars, F6), MOD(9+#REF!, 9)+1), MOD(9+I5-4, 9)+1)</f>
         <v>7</v>
       </c>
-      <c r="J6">
-        <f>MATCH(C6, branch,0 )</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3965,27 +3663,23 @@
         <v>3</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="G7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="I7">
         <f>IF(H7=0, IF(G7 = 0, INDEX(DirectionalStars, F7), MOD(9+I1, 9)+1), MOD(9+I6-4, 9)+1)</f>
         <v>4</v>
       </c>
-      <c r="J7">
-        <f>MATCH(C7, branch,0 )</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4002,27 +3696,23 @@
         <v>7</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="G8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="H8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I8">
-        <f t="shared" ref="I8:I17" si="3">IF(H8=0, IF(G8 = 0, INDEX(DirectionalStars, F8), MOD(9+I5, 9)+1), MOD(9+I7-4, 9)+1)</f>
-        <v>2</v>
-      </c>
-      <c r="J8">
-        <f>MATCH(C8, branch,0 )</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I8:I17" si="7">IF(H8=0, IF(G8 = 0, INDEX(DirectionalStars, F8), MOD(9+I5, 9)+1), MOD(9+I7-4, 9)+1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4039,27 +3729,23 @@
         <v>7</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="G9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="H9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="J9">
-        <f>MATCH(C9, branch,0 )</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4076,27 +3762,23 @@
         <v>7</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="G10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="H10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="I10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="J10">
-        <f>MATCH(C10, branch,0 )</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4113,27 +3795,23 @@
         <v>9</v>
       </c>
       <c r="F11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="G11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="H11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="J11">
-        <f>MATCH(C11, branch,0 )</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4150,27 +3828,23 @@
         <v>9</v>
       </c>
       <c r="F12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="G12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="H12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="J12">
-        <f>MATCH(C12, branch,0 )</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4187,27 +3861,23 @@
         <v>9</v>
       </c>
       <c r="F13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="G13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="H13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="I13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="J13">
-        <f>MATCH(C13, branch,0 )</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4224,27 +3894,23 @@
         <v>13</v>
       </c>
       <c r="F14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="G14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="J14">
-        <f>MATCH(C14, branch,0 )</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4261,27 +3927,23 @@
         <v>13</v>
       </c>
       <c r="F15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="G15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="J15">
-        <f>MATCH(C15, branch,0 )</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4298,27 +3960,23 @@
         <v>13</v>
       </c>
       <c r="F16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="G16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="I16">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="J16">
-        <f>MATCH(C16, branch,0 )</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4335,27 +3993,23 @@
         <v>15</v>
       </c>
       <c r="F17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="G17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="H17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="J17">
-        <f>MATCH(C17, branch,0 )</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4372,27 +4026,23 @@
         <v>15</v>
       </c>
       <c r="F18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="G18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="H18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I18">
         <f>IF(H18=0, IF(G18 = 0, INDEX(DirectionalStars, F18), MOD(9+#REF!, 9)+1), MOD(9+I17-4, 9)+1)</f>
         <v>6</v>
       </c>
-      <c r="J18">
-        <f>MATCH(C18, branch,0 )</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4409,27 +4059,23 @@
         <v>15</v>
       </c>
       <c r="F19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="G19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="H19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="I19">
         <f>IF(H19=0, IF(G19 = 0, INDEX(DirectionalStars, F19), MOD(9+#REF!, 9)+1), MOD(9+I18-4, 9)+1)</f>
         <v>3</v>
       </c>
-      <c r="J19">
-        <f>MATCH(C19, branch,0 )</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4446,27 +4092,23 @@
         <v>19</v>
       </c>
       <c r="F20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="G20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="H20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I20">
-        <f t="shared" ref="I20:I30" si="4">IF(H20=0, IF(G20 = 0, INDEX(DirectionalStars, F20), MOD(9+I17, 9)+1), MOD(9+I19-4, 9)+1)</f>
-        <v>1</v>
-      </c>
-      <c r="J20">
-        <f>MATCH(C20, branch,0 )</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I20:I30" si="8">IF(H20=0, IF(G20 = 0, INDEX(DirectionalStars, F20), MOD(9+I17, 9)+1), MOD(9+I19-4, 9)+1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4483,27 +4125,23 @@
         <v>19</v>
       </c>
       <c r="F21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="G21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="H21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
-      <c r="J21">
-        <f>MATCH(C21, branch,0 )</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4520,27 +4158,23 @@
         <v>19</v>
       </c>
       <c r="F22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="G22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="H22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="I22">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="J22">
-        <f>MATCH(C22, branch,0 )</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4557,27 +4191,23 @@
         <v>21</v>
       </c>
       <c r="F23">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I23">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="J23">
-        <f>MATCH(C23, branch,0 )</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4594,27 +4224,23 @@
         <v>21</v>
       </c>
       <c r="F24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="G24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
-      <c r="J24">
-        <f>MATCH(C24, branch,0 )</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4631,27 +4257,23 @@
         <v>21</v>
       </c>
       <c r="F25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="G25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="I25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="J25">
-        <f>MATCH(C25, branch,0 )</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4668,27 +4290,23 @@
         <v>25</v>
       </c>
       <c r="F26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="G26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="H26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I26">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="J26">
-        <f>MATCH(C26, branch,0 )</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4705,27 +4323,23 @@
         <v>25</v>
       </c>
       <c r="F27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="G27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="H27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I27">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="J27">
-        <f>MATCH(C27, branch,0 )</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4742,27 +4356,23 @@
         <v>25</v>
       </c>
       <c r="F28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="G28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="H28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="I28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
-      <c r="J28">
-        <f>MATCH(C28, branch,0 )</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4779,27 +4389,23 @@
         <v>27</v>
       </c>
       <c r="F29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="G29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="H29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="J29">
-        <f>MATCH(C29, branch,0 )</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4816,27 +4422,23 @@
         <v>27</v>
       </c>
       <c r="F30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="G30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="H30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I30">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="J30">
-        <f>MATCH(C30, branch,0 )</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4853,27 +4455,23 @@
         <v>27</v>
       </c>
       <c r="F31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="G31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="H31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="I31">
         <f>IF(H31=0, IF(G31 = 0, INDEX(DirectionalStars, F31), MOD(9+#REF!, 9)+1), MOD(9+I30-4, 9)+1)</f>
         <v>8</v>
       </c>
-      <c r="J31">
-        <f>MATCH(C31, branch,0 )</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4890,27 +4488,23 @@
         <v>31</v>
       </c>
       <c r="F32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="G32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I32">
         <f>IF(H32=0, IF(G32 = 0, INDEX(DirectionalStars, F32), MOD(9+#REF!, 9)+1), MOD(9+I31-4, 9)+1)</f>
         <v>4</v>
       </c>
-      <c r="J32">
-        <f>MATCH(C32, branch,0 )</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4927,27 +4521,23 @@
         <v>31</v>
       </c>
       <c r="F33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="G33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I33">
-        <f t="shared" ref="I33:I40" si="5">IF(H33=0, IF(G33 = 0, INDEX(DirectionalStars, F33), MOD(9+I30, 9)+1), MOD(9+I32-4, 9)+1)</f>
-        <v>1</v>
-      </c>
-      <c r="J33">
-        <f>MATCH(C33, branch,0 )</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I33:I40" si="9">IF(H33=0, IF(G33 = 0, INDEX(DirectionalStars, F33), MOD(9+I30, 9)+1), MOD(9+I32-4, 9)+1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4964,1063 +4554,947 @@
         <v>31</v>
       </c>
       <c r="F34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="G34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="I34">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" t="s">
+        <v>87</v>
+      </c>
+      <c r="E35" t="s">
+        <v>32</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" t="s">
+        <v>87</v>
+      </c>
+      <c r="E36" t="s">
+        <v>32</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" t="s">
+        <v>87</v>
+      </c>
+      <c r="E37" t="s">
+        <v>32</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38" t="s">
+        <v>36</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" t="s">
+        <v>35</v>
+      </c>
+      <c r="E39" t="s">
+        <v>36</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="G39">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="J34">
-        <f>MATCH(C34, branch,0 )</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="H39">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" t="s">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
-        <v>28</v>
-      </c>
-      <c r="C35" t="s">
-        <v>29</v>
-      </c>
-      <c r="D35" t="s">
-        <v>90</v>
-      </c>
-      <c r="E35" t="s">
-        <v>32</v>
-      </c>
-      <c r="F35">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="1"/>
+      <c r="D40" t="s">
+        <v>35</v>
+      </c>
+      <c r="E40" t="s">
+        <v>36</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41" t="s">
+        <v>37</v>
+      </c>
+      <c r="E41" t="s">
+        <v>38</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <f t="shared" ref="I41:I76" si="10">IF(H41=0, IF(G41 = 0, -INDEX(DirectionalStars, F41), MOD(I38+2, -9)-1), -MOD(-I40+2, 9)-1)</f>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" t="s">
+        <v>34</v>
+      </c>
+      <c r="D42" t="s">
+        <v>37</v>
+      </c>
+      <c r="E42" t="s">
+        <v>38</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="10"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" t="s">
+        <v>34</v>
+      </c>
+      <c r="D43" t="s">
+        <v>37</v>
+      </c>
+      <c r="E43" t="s">
+        <v>38</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="10"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44" t="s">
+        <v>40</v>
+      </c>
+      <c r="D44" t="s">
+        <v>41</v>
+      </c>
+      <c r="E44" t="s">
+        <v>42</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="H35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I35">
+      <c r="H44">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="10"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" t="s">
+        <v>40</v>
+      </c>
+      <c r="D45" t="s">
+        <v>41</v>
+      </c>
+      <c r="E45" t="s">
+        <v>42</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="10"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>39</v>
+      </c>
+      <c r="C46" t="s">
+        <v>40</v>
+      </c>
+      <c r="D46" t="s">
+        <v>41</v>
+      </c>
+      <c r="E46" t="s">
+        <v>42</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="G46">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="J35">
-        <f>MATCH(C35, branch,0 )</f>
+      <c r="H46">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="10"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>39</v>
+      </c>
+      <c r="C47" t="s">
+        <v>40</v>
+      </c>
+      <c r="D47" t="s">
+        <v>43</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>28</v>
-      </c>
-      <c r="C36" t="s">
-        <v>29</v>
-      </c>
-      <c r="D36" t="s">
-        <v>90</v>
-      </c>
-      <c r="E36" t="s">
-        <v>32</v>
-      </c>
-      <c r="F36">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="G36">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="H36">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I36">
+      <c r="H47">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="10"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>39</v>
+      </c>
+      <c r="C48" t="s">
+        <v>40</v>
+      </c>
+      <c r="D48" t="s">
+        <v>43</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="G48">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="J36">
-        <f>MATCH(C36, branch,0 )</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>28</v>
-      </c>
-      <c r="C37" t="s">
-        <v>29</v>
-      </c>
-      <c r="D37" t="s">
-        <v>90</v>
-      </c>
-      <c r="E37" t="s">
-        <v>32</v>
-      </c>
-      <c r="F37">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49" t="s">
+        <v>40</v>
+      </c>
+      <c r="D49" t="s">
+        <v>43</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="H37">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="I37">
+      <c r="G49">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="J37">
-        <f>MATCH(C37, branch,0 )</f>
+      <c r="H49">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="10"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>45</v>
+      </c>
+      <c r="C50" t="s">
+        <v>46</v>
+      </c>
+      <c r="D50" t="s">
+        <v>47</v>
+      </c>
+      <c r="E50" t="s">
+        <v>48</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>33</v>
-      </c>
-      <c r="C38" t="s">
-        <v>34</v>
-      </c>
-      <c r="D38" t="s">
-        <v>35</v>
-      </c>
-      <c r="E38" t="s">
-        <v>36</v>
-      </c>
-      <c r="F38">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="G38">
-        <f t="shared" si="1"/>
+      <c r="G50">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="10"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>45</v>
+      </c>
+      <c r="C51" t="s">
+        <v>46</v>
+      </c>
+      <c r="D51" t="s">
+        <v>47</v>
+      </c>
+      <c r="E51" t="s">
+        <v>48</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="H38">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I38">
+      <c r="G51">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="10"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>45</v>
+      </c>
+      <c r="C52" t="s">
+        <v>46</v>
+      </c>
+      <c r="D52" t="s">
+        <v>47</v>
+      </c>
+      <c r="E52" t="s">
+        <v>48</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="10"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>45</v>
+      </c>
+      <c r="C53" t="s">
+        <v>46</v>
+      </c>
+      <c r="D53" t="s">
+        <v>49</v>
+      </c>
+      <c r="E53" t="s">
+        <v>50</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>45</v>
+      </c>
+      <c r="C54" t="s">
+        <v>46</v>
+      </c>
+      <c r="D54" t="s">
+        <v>49</v>
+      </c>
+      <c r="E54" t="s">
+        <v>50</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="10"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>45</v>
+      </c>
+      <c r="C55" t="s">
+        <v>46</v>
+      </c>
+      <c r="D55" t="s">
+        <v>49</v>
+      </c>
+      <c r="E55" t="s">
+        <v>50</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="10"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>51</v>
+      </c>
+      <c r="C56" t="s">
+        <v>52</v>
+      </c>
+      <c r="D56" t="s">
+        <v>53</v>
+      </c>
+      <c r="E56" t="s">
+        <v>54</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="G56">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="J38">
-        <f>MATCH(C38, branch,0 )</f>
+      <c r="H56">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="10"/>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>51</v>
+      </c>
+      <c r="C57" t="s">
+        <v>52</v>
+      </c>
+      <c r="D57" t="s">
+        <v>53</v>
+      </c>
+      <c r="E57" t="s">
+        <v>54</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>33</v>
-      </c>
-      <c r="C39" t="s">
-        <v>34</v>
-      </c>
-      <c r="D39" t="s">
-        <v>35</v>
-      </c>
-      <c r="E39" t="s">
-        <v>36</v>
-      </c>
-      <c r="F39">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="G39">
-        <f t="shared" si="1"/>
+      <c r="H57">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="10"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>51</v>
+      </c>
+      <c r="C58" t="s">
+        <v>52</v>
+      </c>
+      <c r="D58" t="s">
+        <v>53</v>
+      </c>
+      <c r="E58" t="s">
+        <v>54</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="10"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>51</v>
+      </c>
+      <c r="C59" t="s">
+        <v>52</v>
+      </c>
+      <c r="D59" t="s">
+        <v>55</v>
+      </c>
+      <c r="E59" t="s">
+        <v>56</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="H39">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I39">
+      <c r="G59">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="10"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>51</v>
+      </c>
+      <c r="C60" t="s">
+        <v>52</v>
+      </c>
+      <c r="D60" t="s">
+        <v>55</v>
+      </c>
+      <c r="E60" t="s">
+        <v>56</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>51</v>
+      </c>
+      <c r="C61" t="s">
+        <v>52</v>
+      </c>
+      <c r="D61" t="s">
+        <v>55</v>
+      </c>
+      <c r="E61" t="s">
+        <v>56</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="10"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>57</v>
+      </c>
+      <c r="C62" t="s">
+        <v>58</v>
+      </c>
+      <c r="D62" t="s">
+        <v>59</v>
+      </c>
+      <c r="E62" t="s">
+        <v>60</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="G62">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="J39">
-        <f>MATCH(C39, branch,0 )</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>33</v>
-      </c>
-      <c r="C40" t="s">
-        <v>34</v>
-      </c>
-      <c r="D40" t="s">
-        <v>35</v>
-      </c>
-      <c r="E40" t="s">
-        <v>36</v>
-      </c>
-      <c r="F40">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="G40">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="H40">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="I40">
-        <f t="shared" si="5"/>
-        <v>9</v>
-      </c>
-      <c r="J40">
-        <f>MATCH(C40, branch,0 )</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
-        <v>33</v>
-      </c>
-      <c r="C41" t="s">
-        <v>34</v>
-      </c>
-      <c r="D41" t="s">
-        <v>37</v>
-      </c>
-      <c r="E41" t="s">
-        <v>38</v>
-      </c>
-      <c r="F41">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="G41">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <f t="shared" ref="I41:I76" si="6">IF(H41=0, IF(G41 = 0, -INDEX(DirectionalStars, F41), MOD(I38+2, -9)-1), -MOD(-I40+2, 9)-1)</f>
-        <v>-9</v>
-      </c>
-      <c r="J41">
-        <f>MATCH(C41, branch,0 )</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>33</v>
-      </c>
-      <c r="C42" t="s">
-        <v>34</v>
-      </c>
-      <c r="D42" t="s">
-        <v>37</v>
-      </c>
-      <c r="E42" t="s">
-        <v>38</v>
-      </c>
-      <c r="F42">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="G42">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H42">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I42">
-        <f t="shared" si="6"/>
-        <v>-3</v>
-      </c>
-      <c r="J42">
-        <f>MATCH(C42, branch,0 )</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>33</v>
-      </c>
-      <c r="C43" t="s">
-        <v>34</v>
-      </c>
-      <c r="D43" t="s">
-        <v>37</v>
-      </c>
-      <c r="E43" t="s">
-        <v>38</v>
-      </c>
-      <c r="F43">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="G43">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="H43">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="I43">
-        <f t="shared" si="6"/>
+      <c r="H62">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="10"/>
         <v>-6</v>
       </c>
-      <c r="J43">
-        <f>MATCH(C43, branch,0 )</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44" t="s">
-        <v>39</v>
-      </c>
-      <c r="C44" t="s">
-        <v>40</v>
-      </c>
-      <c r="D44" t="s">
-        <v>41</v>
-      </c>
-      <c r="E44" t="s">
-        <v>42</v>
-      </c>
-      <c r="F44">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="G44">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="H44">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I44">
-        <f t="shared" si="6"/>
-        <v>-8</v>
-      </c>
-      <c r="J44">
-        <f>MATCH(C44, branch,0 )</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
-        <v>39</v>
-      </c>
-      <c r="C45" t="s">
-        <v>40</v>
-      </c>
-      <c r="D45" t="s">
-        <v>41</v>
-      </c>
-      <c r="E45" t="s">
-        <v>42</v>
-      </c>
-      <c r="F45">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="G45">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="H45">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I45">
-        <f t="shared" si="6"/>
-        <v>-2</v>
-      </c>
-      <c r="J45">
-        <f>MATCH(C45, branch,0 )</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46" t="s">
-        <v>39</v>
-      </c>
-      <c r="C46" t="s">
-        <v>40</v>
-      </c>
-      <c r="D46" t="s">
-        <v>41</v>
-      </c>
-      <c r="E46" t="s">
-        <v>42</v>
-      </c>
-      <c r="F46">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="G46">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="H46">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="I46">
-        <f t="shared" si="6"/>
-        <v>-5</v>
-      </c>
-      <c r="J46">
-        <f>MATCH(C46, branch,0 )</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
-        <v>39</v>
-      </c>
-      <c r="C47" t="s">
-        <v>40</v>
-      </c>
-      <c r="D47" t="s">
-        <v>43</v>
-      </c>
-      <c r="E47" t="s">
-        <v>44</v>
-      </c>
-      <c r="F47">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="G47">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="H47">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <f t="shared" si="6"/>
-        <v>-7</v>
-      </c>
-      <c r="J47">
-        <f>MATCH(C47, branch,0 )</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
-        <v>39</v>
-      </c>
-      <c r="C48" t="s">
-        <v>40</v>
-      </c>
-      <c r="D48" t="s">
-        <v>43</v>
-      </c>
-      <c r="E48" t="s">
-        <v>44</v>
-      </c>
-      <c r="F48">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="G48">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="H48">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I48">
-        <f t="shared" si="6"/>
-        <v>-1</v>
-      </c>
-      <c r="J48">
-        <f>MATCH(C48, branch,0 )</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49" t="s">
-        <v>39</v>
-      </c>
-      <c r="C49" t="s">
-        <v>40</v>
-      </c>
-      <c r="D49" t="s">
-        <v>43</v>
-      </c>
-      <c r="E49" t="s">
-        <v>44</v>
-      </c>
-      <c r="F49">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="G49">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="H49">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="I49">
-        <f t="shared" si="6"/>
-        <v>-4</v>
-      </c>
-      <c r="J49">
-        <f>MATCH(C49, branch,0 )</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50" t="s">
-        <v>45</v>
-      </c>
-      <c r="C50" t="s">
-        <v>46</v>
-      </c>
-      <c r="D50" t="s">
-        <v>47</v>
-      </c>
-      <c r="E50" t="s">
-        <v>48</v>
-      </c>
-      <c r="F50">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="G50">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H50">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I50">
-        <f t="shared" si="6"/>
-        <v>-2</v>
-      </c>
-      <c r="J50">
-        <f>MATCH(C50, branch,0 )</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51" t="s">
-        <v>45</v>
-      </c>
-      <c r="C51" t="s">
-        <v>46</v>
-      </c>
-      <c r="D51" t="s">
-        <v>47</v>
-      </c>
-      <c r="E51" t="s">
-        <v>48</v>
-      </c>
-      <c r="F51">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="G51">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H51">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I51">
-        <f t="shared" si="6"/>
-        <v>-5</v>
-      </c>
-      <c r="J51">
-        <f>MATCH(C51, branch,0 )</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52" t="s">
-        <v>45</v>
-      </c>
-      <c r="C52" t="s">
-        <v>46</v>
-      </c>
-      <c r="D52" t="s">
-        <v>47</v>
-      </c>
-      <c r="E52" t="s">
-        <v>48</v>
-      </c>
-      <c r="F52">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="G52">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="H52">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="I52">
-        <f t="shared" si="6"/>
-        <v>-8</v>
-      </c>
-      <c r="J52">
-        <f>MATCH(C52, branch,0 )</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53" t="s">
-        <v>45</v>
-      </c>
-      <c r="C53" t="s">
-        <v>46</v>
-      </c>
-      <c r="D53" t="s">
-        <v>49</v>
-      </c>
-      <c r="E53" t="s">
-        <v>50</v>
-      </c>
-      <c r="F53">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="G53">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="H53">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I53">
-        <f t="shared" si="6"/>
-        <v>-1</v>
-      </c>
-      <c r="J53">
-        <f>MATCH(C53, branch,0 )</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54" t="s">
-        <v>45</v>
-      </c>
-      <c r="C54" t="s">
-        <v>46</v>
-      </c>
-      <c r="D54" t="s">
-        <v>49</v>
-      </c>
-      <c r="E54" t="s">
-        <v>50</v>
-      </c>
-      <c r="F54">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="G54">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="H54">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I54">
-        <f t="shared" si="6"/>
-        <v>-4</v>
-      </c>
-      <c r="J54">
-        <f>MATCH(C54, branch,0 )</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55" t="s">
-        <v>45</v>
-      </c>
-      <c r="C55" t="s">
-        <v>46</v>
-      </c>
-      <c r="D55" t="s">
-        <v>49</v>
-      </c>
-      <c r="E55" t="s">
-        <v>50</v>
-      </c>
-      <c r="F55">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="G55">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="H55">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="I55">
-        <f t="shared" si="6"/>
-        <v>-7</v>
-      </c>
-      <c r="J55">
-        <f>MATCH(C55, branch,0 )</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="B56" t="s">
-        <v>51</v>
-      </c>
-      <c r="C56" t="s">
-        <v>52</v>
-      </c>
-      <c r="D56" t="s">
-        <v>53</v>
-      </c>
-      <c r="E56" t="s">
-        <v>54</v>
-      </c>
-      <c r="F56">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="G56">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="H56">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I56">
-        <f t="shared" si="6"/>
-        <v>-9</v>
-      </c>
-      <c r="J56">
-        <f>MATCH(C56, branch,0 )</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57" t="s">
-        <v>51</v>
-      </c>
-      <c r="C57" t="s">
-        <v>52</v>
-      </c>
-      <c r="D57" t="s">
-        <v>53</v>
-      </c>
-      <c r="E57" t="s">
-        <v>54</v>
-      </c>
-      <c r="F57">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="G57">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="H57">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I57">
-        <f t="shared" si="6"/>
-        <v>-3</v>
-      </c>
-      <c r="J57">
-        <f>MATCH(C57, branch,0 )</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>57</v>
-      </c>
-      <c r="B58" t="s">
-        <v>51</v>
-      </c>
-      <c r="C58" t="s">
-        <v>52</v>
-      </c>
-      <c r="D58" t="s">
-        <v>53</v>
-      </c>
-      <c r="E58" t="s">
-        <v>54</v>
-      </c>
-      <c r="F58">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="G58">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="H58">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="I58">
-        <f t="shared" si="6"/>
-        <v>-6</v>
-      </c>
-      <c r="J58">
-        <f>MATCH(C58, branch,0 )</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59" t="s">
-        <v>51</v>
-      </c>
-      <c r="C59" t="s">
-        <v>52</v>
-      </c>
-      <c r="D59" t="s">
-        <v>55</v>
-      </c>
-      <c r="E59" t="s">
-        <v>56</v>
-      </c>
-      <c r="F59">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="G59">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H59">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I59">
-        <f t="shared" si="6"/>
-        <v>-7</v>
-      </c>
-      <c r="J59">
-        <f>MATCH(C59, branch,0 )</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>59</v>
-      </c>
-      <c r="B60" t="s">
-        <v>51</v>
-      </c>
-      <c r="C60" t="s">
-        <v>52</v>
-      </c>
-      <c r="D60" t="s">
-        <v>55</v>
-      </c>
-      <c r="E60" t="s">
-        <v>56</v>
-      </c>
-      <c r="F60">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="G60">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H60">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I60">
-        <f t="shared" si="6"/>
-        <v>-1</v>
-      </c>
-      <c r="J60">
-        <f>MATCH(C60, branch,0 )</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>60</v>
-      </c>
-      <c r="B61" t="s">
-        <v>51</v>
-      </c>
-      <c r="C61" t="s">
-        <v>52</v>
-      </c>
-      <c r="D61" t="s">
-        <v>55</v>
-      </c>
-      <c r="E61" t="s">
-        <v>56</v>
-      </c>
-      <c r="F61">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="G61">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="H61">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="I61">
-        <f t="shared" si="6"/>
-        <v>-4</v>
-      </c>
-      <c r="J61">
-        <f>MATCH(C61, branch,0 )</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>61</v>
-      </c>
-      <c r="B62" t="s">
-        <v>57</v>
-      </c>
-      <c r="C62" t="s">
-        <v>58</v>
-      </c>
-      <c r="D62" t="s">
-        <v>59</v>
-      </c>
-      <c r="E62" t="s">
-        <v>60</v>
-      </c>
-      <c r="F62">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="G62">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="H62">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I62">
-        <f t="shared" si="6"/>
-        <v>-6</v>
-      </c>
-      <c r="J62">
-        <f>MATCH(C62, branch,0 )</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -6037,27 +5511,23 @@
         <v>60</v>
       </c>
       <c r="F63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="G63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="H63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-9</v>
       </c>
-      <c r="J63">
-        <f>MATCH(C63, branch,0 )</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -6074,27 +5544,23 @@
         <v>60</v>
       </c>
       <c r="F64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="G64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="H64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="I64">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-3</v>
       </c>
-      <c r="J64">
-        <f>MATCH(C64, branch,0 )</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -6111,27 +5577,23 @@
         <v>62</v>
       </c>
       <c r="F65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="G65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="H65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-5</v>
       </c>
-      <c r="J65">
-        <f>MATCH(C65, branch,0 )</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -6148,27 +5610,23 @@
         <v>62</v>
       </c>
       <c r="F66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="G66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="H66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I66">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-8</v>
       </c>
-      <c r="J66">
-        <f>MATCH(C66, branch,0 )</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -6185,27 +5643,23 @@
         <v>62</v>
       </c>
       <c r="F67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="G67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="H67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="I67">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-2</v>
       </c>
-      <c r="J67">
-        <f>MATCH(C67, branch,0 )</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -6222,27 +5676,23 @@
         <v>66</v>
       </c>
       <c r="F68">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="G68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-6</v>
       </c>
-      <c r="J68">
-        <f>MATCH(C68, branch,0 )</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -6259,27 +5709,23 @@
         <v>66</v>
       </c>
       <c r="F69">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="G69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I69">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-9</v>
       </c>
-      <c r="J69">
-        <f>MATCH(C69, branch,0 )</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -6296,27 +5742,23 @@
         <v>66</v>
       </c>
       <c r="F70">
-        <f t="shared" ref="F70:F76" si="7">FLOOR( (ROW()-5)/9, 1)+1</f>
+        <f t="shared" ref="F70:F76" si="11">FLOOR( (ROW()-5)/9, 1)+1</f>
         <v>8</v>
       </c>
       <c r="G70">
-        <f t="shared" ref="G70:G76" si="8">MOD(ROW()-5, 9)</f>
+        <f t="shared" ref="G70:G76" si="12">MOD(ROW()-5, 9)</f>
         <v>2</v>
       </c>
       <c r="H70">
-        <f t="shared" ref="H70:H76" si="9">MOD(ROW()-5, 3)</f>
+        <f t="shared" ref="H70:H76" si="13">MOD(ROW()-5, 3)</f>
         <v>2</v>
       </c>
       <c r="I70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-3</v>
       </c>
-      <c r="J70">
-        <f>MATCH(C70, branch,0 )</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -6333,27 +5775,23 @@
         <v>68</v>
       </c>
       <c r="F71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="G71">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="H71">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I71">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-5</v>
       </c>
-      <c r="J71">
-        <f>MATCH(C71, branch,0 )</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -6370,27 +5808,23 @@
         <v>68</v>
       </c>
       <c r="F72">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="G72">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="H72">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="I72">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-8</v>
       </c>
-      <c r="J72">
-        <f>MATCH(C72, branch,0 )</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -6407,27 +5841,23 @@
         <v>68</v>
       </c>
       <c r="F73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="G73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="H73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="I73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-2</v>
       </c>
-      <c r="J73">
-        <f>MATCH(C73, branch,0 )</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -6444,27 +5874,23 @@
         <v>70</v>
       </c>
       <c r="F74">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="G74">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="H74">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I74">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-4</v>
       </c>
-      <c r="J74">
-        <f>MATCH(C74, branch,0 )</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -6481,27 +5907,23 @@
         <v>70</v>
       </c>
       <c r="F75">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="G75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="H75">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="I75">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-7</v>
       </c>
-      <c r="J75">
-        <f>MATCH(C75, branch,0 )</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -6518,24 +5940,20 @@
         <v>70</v>
       </c>
       <c r="F76">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="G76">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="H76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="I76">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
-      </c>
-      <c r="J76">
-        <f>MATCH(C76, branch,0 )</f>
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -6569,11 +5987,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEA12C89-30C0-4A76-B059-897414F70D65}">
-  <dimension ref="A1:J76"/>
+  <dimension ref="A1:I76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J2" sqref="J2:J76"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6589,52 +6007,45 @@
     <col min="9" max="9" width="2.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="str">
-        <f>header</f>
+        <f t="shared" ref="A1:I1" si="0">header</f>
         <v>序</v>
       </c>
       <c r="B1" s="2" t="str">
-        <f>header</f>
+        <f t="shared" si="0"/>
         <v>農月</v>
       </c>
       <c r="C1" s="2" t="str">
-        <f>header</f>
+        <f t="shared" si="0"/>
         <v>支</v>
       </c>
       <c r="D1" s="2" t="str">
-        <f>header</f>
+        <f t="shared" si="0"/>
         <v>節氣</v>
       </c>
       <c r="E1" s="2" t="str">
-        <f>header</f>
+        <f t="shared" si="0"/>
         <v>西月</v>
       </c>
       <c r="F1" s="2" t="str">
-        <f>header</f>
-        <v>月
-row/9</v>
+        <f t="shared" si="0"/>
+        <v>節</v>
       </c>
       <c r="G1" s="2" t="str">
-        <f>header</f>
-        <v>元
-mod(row,9)</v>
+        <f t="shared" si="0"/>
+        <v>三氣</v>
       </c>
       <c r="H1" s="2" t="str">
-        <f>header</f>
-        <v>節氣
-mod(row, 3)</v>
+        <f t="shared" si="0"/>
+        <v>元</v>
       </c>
       <c r="I1" s="2" t="str">
-        <f>header</f>
+        <f t="shared" si="0"/>
         <v>局</v>
       </c>
-      <c r="J1" s="2" t="str">
-        <f>header</f>
-        <v>lunar month index</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6666,12 +6077,8 @@
         <f>IF(H2=0, IF(G2 = 0, INDEX(DirectionalStars, F2), MOD(9+#REF!, 9)+1), MOD(9+I1-4, 9)+1)</f>
         <v>1</v>
       </c>
-      <c r="J2" s="4">
-        <f>MATCH(C2, branch,0 )</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6688,27 +6095,23 @@
         <v>70</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F37" si="0">FLOOR( (ROW()-2)/9, 1)+1</f>
+        <f t="shared" ref="F3:F37" si="1">FLOOR( (ROW()-2)/9, 1)+1</f>
         <v>1</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G37" si="1">MOD(ROW()-2, 9)</f>
+        <f t="shared" ref="G3:G37" si="2">MOD(ROW()-2, 9)</f>
         <v>1</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H37" si="2">MOD(ROW()-2, 3)</f>
+        <f t="shared" ref="H3:H37" si="3">MOD(ROW()-2, 3)</f>
         <v>1</v>
       </c>
       <c r="I3">
         <f>IF(H3=0, IF(G3 = 0, INDEX(DirectionalStars, F3), MOD(9+#REF!, 9)+1), MOD(9+I2-4, 9)+1)</f>
         <v>7</v>
       </c>
-      <c r="J3" s="4">
-        <f>MATCH(C3, branch,0 )</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6725,27 +6128,23 @@
         <v>3</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I14" si="3">IF(H4=0, IF(G4 = 0, INDEX(DirectionalStars, F4), MOD(9+I1, 9)+1), MOD(9+I3-4, 9)+1)</f>
-        <v>4</v>
-      </c>
-      <c r="J4" s="4">
-        <f>MATCH(C4, branch,0 )</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I4:I14" si="4">IF(H4=0, IF(G4 = 0, INDEX(DirectionalStars, F4), MOD(9+I1, 9)+1), MOD(9+I3-4, 9)+1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6762,27 +6161,23 @@
         <v>3</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="H5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I5">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="J5" s="4">
-        <f>MATCH(C5, branch,0 )</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6799,27 +6194,23 @@
         <v>3</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="H6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="J6" s="4">
-        <f>MATCH(C6, branch,0 )</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6836,27 +6227,23 @@
         <v>7</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="H7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="I7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="J7" s="4">
-        <f>MATCH(C7, branch,0 )</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6873,27 +6260,23 @@
         <v>7</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="H8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="J8" s="4">
-        <f>MATCH(C8, branch,0 )</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6910,27 +6293,23 @@
         <v>7</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="H9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="J9" s="4">
-        <f>MATCH(C9, branch,0 )</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -6947,27 +6326,23 @@
         <v>9</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="H10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="I10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="J10" s="4">
-        <f>MATCH(C10, branch,0 )</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -6984,27 +6359,23 @@
         <v>9</v>
       </c>
       <c r="F11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="J11" s="4">
-        <f>MATCH(C11, branch,0 )</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -7021,27 +6392,23 @@
         <v>9</v>
       </c>
       <c r="F12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="J12" s="4">
-        <f>MATCH(C12, branch,0 )</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -7058,27 +6425,23 @@
         <v>13</v>
       </c>
       <c r="F13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="I13">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="J13" s="4">
-        <f>MATCH(C13, branch,0 )</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -7095,27 +6458,23 @@
         <v>13</v>
       </c>
       <c r="F14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="H14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="J14" s="4">
-        <f>MATCH(C14, branch,0 )</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -7132,27 +6491,23 @@
         <v>13</v>
       </c>
       <c r="F15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="H15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I15">
         <f>IF(H15=0, IF(G15 = 0, INDEX(DirectionalStars, F15), MOD(9+#REF!, 9)+1), MOD(9+I14-4, 9)+1)</f>
         <v>6</v>
       </c>
-      <c r="J15" s="4">
-        <f>MATCH(C15, branch,0 )</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -7169,27 +6524,23 @@
         <v>15</v>
       </c>
       <c r="F16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="H16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="I16">
         <f>IF(H16=0, IF(G16 = 0, INDEX(DirectionalStars, F16), MOD(9+#REF!, 9)+1), MOD(9+I15-4, 9)+1)</f>
         <v>3</v>
       </c>
-      <c r="J16" s="4">
-        <f>MATCH(C16, branch,0 )</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -7206,27 +6557,23 @@
         <v>15</v>
       </c>
       <c r="F17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="H17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I17">
-        <f t="shared" ref="I17:I27" si="4">IF(H17=0, IF(G17 = 0, INDEX(DirectionalStars, F17), MOD(9+I14, 9)+1), MOD(9+I16-4, 9)+1)</f>
-        <v>1</v>
-      </c>
-      <c r="J17" s="4">
-        <f>MATCH(C17, branch,0 )</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I17:I27" si="5">IF(H17=0, IF(G17 = 0, INDEX(DirectionalStars, F17), MOD(9+I14, 9)+1), MOD(9+I16-4, 9)+1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -7243,27 +6590,23 @@
         <v>15</v>
       </c>
       <c r="F18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="H18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="J18" s="4">
-        <f>MATCH(C18, branch,0 )</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -7280,27 +6623,23 @@
         <v>19</v>
       </c>
       <c r="F19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="H19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="I19">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="J19" s="4">
-        <f>MATCH(C19, branch,0 )</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -7317,27 +6656,23 @@
         <v>19</v>
       </c>
       <c r="F20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="J20" s="4">
-        <f>MATCH(C20, branch,0 )</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -7354,27 +6689,23 @@
         <v>19</v>
       </c>
       <c r="F21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="J21" s="4">
-        <f>MATCH(C21, branch,0 )</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -7391,27 +6722,23 @@
         <v>21</v>
       </c>
       <c r="F22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="I22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="J22" s="4">
-        <f>MATCH(C22, branch,0 )</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -7428,27 +6755,23 @@
         <v>21</v>
       </c>
       <c r="F23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="H23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I23">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="J23" s="4">
-        <f>MATCH(C23, branch,0 )</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -7465,27 +6788,23 @@
         <v>21</v>
       </c>
       <c r="F24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="H24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I24">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="J24" s="4">
-        <f>MATCH(C24, branch,0 )</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -7502,27 +6821,23 @@
         <v>25</v>
       </c>
       <c r="F25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="H25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="I25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="J25" s="4">
-        <f>MATCH(C25, branch,0 )</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -7539,27 +6854,23 @@
         <v>25</v>
       </c>
       <c r="F26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="H26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="J26" s="4">
-        <f>MATCH(C26, branch,0 )</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -7576,27 +6887,23 @@
         <v>25</v>
       </c>
       <c r="F27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="H27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I27">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="J27" s="4">
-        <f>MATCH(C27, branch,0 )</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -7613,27 +6920,23 @@
         <v>27</v>
       </c>
       <c r="F28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="H28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="I28">
         <f>IF(H28=0, IF(G28 = 0, INDEX(DirectionalStars, F28), MOD(9+#REF!, 9)+1), MOD(9+I27-4, 9)+1)</f>
         <v>8</v>
       </c>
-      <c r="J28" s="4">
-        <f>MATCH(C28, branch,0 )</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -7650,27 +6953,23 @@
         <v>27</v>
       </c>
       <c r="F29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="G29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I29">
         <f>IF(H29=0, IF(G29 = 0, INDEX(DirectionalStars, F29), MOD(9+#REF!, 9)+1), MOD(9+I28-4, 9)+1)</f>
         <v>4</v>
       </c>
-      <c r="J29" s="4">
-        <f>MATCH(C29, branch,0 )</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -7687,27 +6986,23 @@
         <v>27</v>
       </c>
       <c r="F30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="G30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I30">
-        <f t="shared" ref="I30:I37" si="5">IF(H30=0, IF(G30 = 0, INDEX(DirectionalStars, F30), MOD(9+I27, 9)+1), MOD(9+I29-4, 9)+1)</f>
-        <v>1</v>
-      </c>
-      <c r="J30" s="4">
-        <f>MATCH(C30, branch,0 )</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I30:I37" si="6">IF(H30=0, IF(G30 = 0, INDEX(DirectionalStars, F30), MOD(9+I27, 9)+1), MOD(9+I29-4, 9)+1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -7724,27 +7019,23 @@
         <v>31</v>
       </c>
       <c r="F31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="G31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="I31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="J31" s="4">
-        <f>MATCH(C31, branch,0 )</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -7761,27 +7052,23 @@
         <v>31</v>
       </c>
       <c r="F32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="G32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="H32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="J32" s="4">
-        <f>MATCH(C32, branch,0 )</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -7798,27 +7085,23 @@
         <v>31</v>
       </c>
       <c r="F33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="G33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="H33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I33">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="J33" s="4">
-        <f>MATCH(C33, branch,0 )</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -7829,33 +7112,29 @@
         <v>29</v>
       </c>
       <c r="D34" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E34" t="s">
         <v>32</v>
       </c>
       <c r="F34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="G34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="H34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="I34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="J34" s="4">
-        <f>MATCH(C34, branch,0 )</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -7866,33 +7145,29 @@
         <v>29</v>
       </c>
       <c r="D35" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E35" t="s">
         <v>32</v>
       </c>
       <c r="F35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="G35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="H35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="J35" s="4">
-        <f>MATCH(C35, branch,0 )</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -7903,33 +7178,29 @@
         <v>34</v>
       </c>
       <c r="D36" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E36" t="s">
         <v>32</v>
       </c>
       <c r="F36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="G36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="H36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="J36" s="4">
-        <f>MATCH(C36, branch,0 )</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -7946,102 +7217,122 @@
         <v>36</v>
       </c>
       <c r="F37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="G37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="H37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="I37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="J37" s="4">
-        <f>MATCH(C37, branch,0 )</f>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>37</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F38" s="5">
+        <f t="shared" ref="F38:H38" si="7">F35</f>
+        <v>4</v>
+      </c>
+      <c r="G38" s="5">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="H38" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="5">
+        <f t="shared" ref="I38:I40" si="8">I35</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>38</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F39" s="5">
+        <f t="shared" ref="F39:H39" si="9">F36</f>
+        <v>4</v>
+      </c>
+      <c r="G39" s="5">
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="H39" s="5">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I39" s="5">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>39</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D40" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
-        <v>33</v>
-      </c>
-      <c r="C38" t="s">
-        <v>34</v>
-      </c>
-      <c r="D38" t="s">
-        <v>35</v>
-      </c>
-      <c r="E38" t="s">
-        <v>36</v>
-      </c>
-      <c r="I38">
-        <f t="shared" ref="I38" si="6">I35</f>
-        <v>6</v>
-      </c>
-      <c r="J38" s="4">
-        <f>MATCH(C38, branch,0 )</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="E40" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C39" t="s">
-        <v>34</v>
-      </c>
-      <c r="D39" t="s">
-        <v>35</v>
-      </c>
-      <c r="E39" t="s">
-        <v>36</v>
-      </c>
-      <c r="I39">
-        <f t="shared" ref="I39" si="7">I36</f>
-        <v>3</v>
-      </c>
-      <c r="J39" s="4">
-        <f>MATCH(C39, branch,0 )</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>33</v>
-      </c>
-      <c r="C40" t="s">
-        <v>34</v>
-      </c>
-      <c r="D40" t="s">
-        <v>37</v>
-      </c>
-      <c r="E40" t="s">
-        <v>38</v>
-      </c>
-      <c r="I40">
-        <f t="shared" ref="I40" si="8">I37</f>
+      <c r="F40" s="5">
+        <f t="shared" ref="F40:H40" si="10">F37</f>
+        <v>4</v>
+      </c>
+      <c r="G40" s="5">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="H40" s="5">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="I40" s="5">
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
-      <c r="J40" s="4">
-        <f>MATCH(C40, branch,0 )</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -8073,12 +7364,8 @@
         <f>IF(H41=0, IF(G41 = 0, -INDEX(DirectionalStars, F41), MOD(I35+2, -9)-1), -MOD(-I37+2, 9)-1)</f>
         <v>-9</v>
       </c>
-      <c r="J41" s="4">
-        <f>MATCH(C41, branch,0 )</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -8095,64 +7382,56 @@
         <v>38</v>
       </c>
       <c r="F42">
-        <f t="shared" ref="F42:F76" si="9">FLOOR( (ROW()-5)/9, 1)+1</f>
+        <f t="shared" ref="F42:F76" si="11">FLOOR( (ROW()-5)/9, 1)+1</f>
         <v>5</v>
       </c>
       <c r="G42">
-        <f t="shared" ref="G42:G76" si="10">MOD(ROW()-5, 9)</f>
+        <f t="shared" ref="G42:G76" si="12">MOD(ROW()-5, 9)</f>
         <v>1</v>
       </c>
       <c r="H42">
-        <f t="shared" ref="H42:H76" si="11">MOD(ROW()-5, 3)</f>
+        <f t="shared" ref="H42:H76" si="13">MOD(ROW()-5, 3)</f>
         <v>1</v>
       </c>
       <c r="I42">
         <f>IF(H42=0, IF(G42 = 0, -INDEX(DirectionalStars, F42), MOD(I36+2, -9)-1), -MOD(-I41+2, 9)-1)</f>
         <v>-3</v>
       </c>
-      <c r="J42" s="4">
-        <f>MATCH(C42, branch,0 )</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="E43" s="4" t="s">
         <v>42</v>
       </c>
       <c r="F43">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="G43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="H43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="I43">
         <f>IF(H43=0, IF(G43 = 0, -INDEX(DirectionalStars, F43), MOD(I37+2, -9)-1), -MOD(-I42+2, 9)-1)</f>
         <v>-6</v>
       </c>
-      <c r="J43" s="4">
-        <f>MATCH(C43, branch,0 )</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -8169,27 +7448,23 @@
         <v>42</v>
       </c>
       <c r="F44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="G44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="H44">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I44">
-        <f t="shared" ref="I44:I76" si="12">IF(H44=0, IF(G44 = 0, -INDEX(DirectionalStars, F44), MOD(I41+2, -9)-1), -MOD(-I43+2, 9)-1)</f>
+        <f t="shared" ref="I44:I76" si="14">IF(H44=0, IF(G44 = 0, -INDEX(DirectionalStars, F44), MOD(I41+2, -9)-1), -MOD(-I43+2, 9)-1)</f>
         <v>-8</v>
       </c>
-      <c r="J44" s="4">
-        <f>MATCH(C44, branch,0 )</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -8206,27 +7481,23 @@
         <v>42</v>
       </c>
       <c r="F45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="G45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="H45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="I45">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-2</v>
       </c>
-      <c r="J45" s="4">
-        <f>MATCH(C45, branch,0 )</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -8243,27 +7514,23 @@
         <v>44</v>
       </c>
       <c r="F46">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="G46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="H46">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="I46">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-5</v>
       </c>
-      <c r="J46" s="4">
-        <f>MATCH(C46, branch,0 )</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -8280,27 +7547,23 @@
         <v>44</v>
       </c>
       <c r="F47">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="G47">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="H47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I47">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-7</v>
       </c>
-      <c r="J47" s="4">
-        <f>MATCH(C47, branch,0 )</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -8317,27 +7580,23 @@
         <v>44</v>
       </c>
       <c r="F48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="G48">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="H48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="I48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-1</v>
       </c>
-      <c r="J48" s="4">
-        <f>MATCH(C48, branch,0 )</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -8354,27 +7613,23 @@
         <v>44</v>
       </c>
       <c r="F49">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="G49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="H49">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="I49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-4</v>
       </c>
-      <c r="J49" s="4">
-        <f>MATCH(C49, branch,0 )</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -8391,27 +7646,23 @@
         <v>48</v>
       </c>
       <c r="F50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="G50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-2</v>
       </c>
-      <c r="J50" s="4">
-        <f>MATCH(C50, branch,0 )</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -8428,27 +7679,23 @@
         <v>48</v>
       </c>
       <c r="F51">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="G51">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="H51">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="I51">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-5</v>
       </c>
-      <c r="J51" s="4">
-        <f>MATCH(C51, branch,0 )</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -8465,27 +7712,23 @@
         <v>48</v>
       </c>
       <c r="F52">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="G52">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="H52">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="I52">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-8</v>
       </c>
-      <c r="J52" s="4">
-        <f>MATCH(C52, branch,0 )</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -8502,27 +7745,23 @@
         <v>50</v>
       </c>
       <c r="F53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="G53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="H53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I53">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-1</v>
       </c>
-      <c r="J53" s="4">
-        <f>MATCH(C53, branch,0 )</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -8539,27 +7778,23 @@
         <v>50</v>
       </c>
       <c r="F54">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="G54">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="H54">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="I54">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-4</v>
       </c>
-      <c r="J54" s="4">
-        <f>MATCH(C54, branch,0 )</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -8576,27 +7811,23 @@
         <v>50</v>
       </c>
       <c r="F55">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="G55">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="H55">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="I55">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-7</v>
       </c>
-      <c r="J55" s="4">
-        <f>MATCH(C55, branch,0 )</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -8613,27 +7844,23 @@
         <v>54</v>
       </c>
       <c r="F56">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="G56">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="H56">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I56">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-9</v>
       </c>
-      <c r="J56" s="4">
-        <f>MATCH(C56, branch,0 )</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -8650,27 +7877,23 @@
         <v>54</v>
       </c>
       <c r="F57">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="G57">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="H57">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="I57">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-3</v>
       </c>
-      <c r="J57" s="4">
-        <f>MATCH(C57, branch,0 )</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -8687,27 +7910,23 @@
         <v>54</v>
       </c>
       <c r="F58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="G58">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="H58">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="I58">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-6</v>
       </c>
-      <c r="J58" s="4">
-        <f>MATCH(C58, branch,0 )</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -8724,27 +7943,23 @@
         <v>56</v>
       </c>
       <c r="F59">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="G59">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H59">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I59">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-7</v>
       </c>
-      <c r="J59" s="4">
-        <f>MATCH(C59, branch,0 )</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -8761,27 +7976,23 @@
         <v>56</v>
       </c>
       <c r="F60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="G60">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="H60">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="I60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-1</v>
       </c>
-      <c r="J60" s="4">
-        <f>MATCH(C60, branch,0 )</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -8798,27 +8009,23 @@
         <v>56</v>
       </c>
       <c r="F61">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="G61">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="H61">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="I61">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-4</v>
       </c>
-      <c r="J61" s="4">
-        <f>MATCH(C61, branch,0 )</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -8835,27 +8042,23 @@
         <v>60</v>
       </c>
       <c r="F62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="G62">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="H62">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I62">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-6</v>
       </c>
-      <c r="J62" s="4">
-        <f>MATCH(C62, branch,0 )</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -8872,27 +8075,23 @@
         <v>60</v>
       </c>
       <c r="F63">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="G63">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="H63">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="I63">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-9</v>
       </c>
-      <c r="J63" s="4">
-        <f>MATCH(C63, branch,0 )</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -8909,27 +8108,23 @@
         <v>60</v>
       </c>
       <c r="F64">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="G64">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="H64">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="I64">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-3</v>
       </c>
-      <c r="J64" s="4">
-        <f>MATCH(C64, branch,0 )</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -8946,27 +8141,23 @@
         <v>62</v>
       </c>
       <c r="F65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="G65">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="H65">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I65">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-5</v>
       </c>
-      <c r="J65" s="4">
-        <f>MATCH(C65, branch,0 )</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -8983,27 +8174,23 @@
         <v>62</v>
       </c>
       <c r="F66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="G66">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="H66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="I66">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-8</v>
       </c>
-      <c r="J66" s="4">
-        <f>MATCH(C66, branch,0 )</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -9020,27 +8207,23 @@
         <v>62</v>
       </c>
       <c r="F67">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="G67">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="H67">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="I67">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-2</v>
       </c>
-      <c r="J67" s="4">
-        <f>MATCH(C67, branch,0 )</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -9057,27 +8240,23 @@
         <v>66</v>
       </c>
       <c r="F68">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="G68">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H68">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I68">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-6</v>
       </c>
-      <c r="J68" s="4">
-        <f>MATCH(C68, branch,0 )</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -9094,27 +8273,23 @@
         <v>66</v>
       </c>
       <c r="F69">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="G69">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="H69">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="I69">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-9</v>
       </c>
-      <c r="J69" s="4">
-        <f>MATCH(C69, branch,0 )</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -9131,27 +8306,23 @@
         <v>66</v>
       </c>
       <c r="F70">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="G70">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="H70">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="I70">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-3</v>
       </c>
-      <c r="J70" s="4">
-        <f>MATCH(C70, branch,0 )</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -9168,27 +8339,23 @@
         <v>68</v>
       </c>
       <c r="F71">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="G71">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="H71">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I71">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-5</v>
       </c>
-      <c r="J71" s="4">
-        <f>MATCH(C71, branch,0 )</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -9205,27 +8372,23 @@
         <v>68</v>
       </c>
       <c r="F72">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="G72">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="H72">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="I72">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-8</v>
       </c>
-      <c r="J72" s="4">
-        <f>MATCH(C72, branch,0 )</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -9242,27 +8405,23 @@
         <v>68</v>
       </c>
       <c r="F73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="G73">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="H73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="I73">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-2</v>
       </c>
-      <c r="J73" s="4">
-        <f>MATCH(C73, branch,0 )</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -9279,27 +8438,23 @@
         <v>70</v>
       </c>
       <c r="F74">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="G74">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="H74">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I74">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-4</v>
       </c>
-      <c r="J74" s="4">
-        <f>MATCH(C74, branch,0 )</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -9316,27 +8471,23 @@
         <v>70</v>
       </c>
       <c r="F75">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="G75">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="H75">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="I75">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-7</v>
       </c>
-      <c r="J75" s="4">
-        <f>MATCH(C75, branch,0 )</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -9353,28 +8504,24 @@
         <v>70</v>
       </c>
       <c r="F76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="G76">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="H76">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="I76">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-1</v>
       </c>
-      <c r="J76" s="4">
-        <f>MATCH(C76, branch,0 )</f>
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A3:E40">
     <cfRule type="expression" dxfId="8" priority="1">
       <formula>MOD(ROW()-1, 9)=1</formula>
@@ -9391,7 +8538,7 @@
       <formula>MOD(ROW()-1, 3)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:I2 I3:I40 F3:H76">
+  <conditionalFormatting sqref="A2:I2 F3:I38 I39:I40 F39:H76">
     <cfRule type="expression" dxfId="4" priority="6">
       <formula>MOD(ROW()-1, 9)=1</formula>
     </cfRule>
